--- a/831MarketingAnalytics/Project/831MarketingProject/output/repayment_predictions.xlsx
+++ b/831MarketingAnalytics/Project/831MarketingProject/output/repayment_predictions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D488"/>
+  <dimension ref="A1:C488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,15 +441,10 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Logistic Regression</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>Random Forest</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>XGBoost</t>
         </is>
@@ -465,22 +460,16 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -493,9 +482,6 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -507,22 +493,16 @@
       <c r="C5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -535,22 +515,16 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -563,9 +537,6 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -577,36 +548,27 @@
       <c r="C10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -619,21 +581,15 @@
       <c r="C13" t="n">
         <v>0</v>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -647,9 +603,6 @@
       <c r="C15" t="n">
         <v>0</v>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -661,9 +614,6 @@
       <c r="C16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -675,9 +625,6 @@
       <c r="C17" t="n">
         <v>1</v>
       </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -689,9 +636,6 @@
       <c r="C18" t="n">
         <v>0</v>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -703,22 +647,16 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -731,9 +669,6 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -745,9 +680,6 @@
       <c r="C22" t="n">
         <v>1</v>
       </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -759,22 +691,16 @@
       <c r="C23" t="n">
         <v>1</v>
       </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -787,36 +713,27 @@
       <c r="C25" t="n">
         <v>1</v>
       </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -829,9 +746,6 @@
       <c r="C28" t="n">
         <v>0</v>
       </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -843,36 +757,27 @@
       <c r="C29" t="n">
         <v>0</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -885,22 +790,16 @@
       <c r="C32" t="n">
         <v>0</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -913,9 +812,6 @@
       <c r="C34" t="n">
         <v>0</v>
       </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -927,50 +823,38 @@
       <c r="C35" t="n">
         <v>0</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -983,36 +867,27 @@
       <c r="C39" t="n">
         <v>0</v>
       </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1025,9 +900,6 @@
       <c r="C42" t="n">
         <v>0</v>
       </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1039,9 +911,6 @@
       <c r="C43" t="n">
         <v>0</v>
       </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1053,36 +922,27 @@
       <c r="C44" t="n">
         <v>0</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1095,9 +955,6 @@
       <c r="C47" t="n">
         <v>0</v>
       </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1109,22 +966,16 @@
       <c r="C48" t="n">
         <v>0</v>
       </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1137,22 +988,16 @@
       <c r="C50" t="n">
         <v>0</v>
       </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1165,9 +1010,6 @@
       <c r="C52" t="n">
         <v>0</v>
       </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1179,36 +1021,27 @@
       <c r="C53" t="n">
         <v>0</v>
       </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1221,22 +1054,16 @@
       <c r="C56" t="n">
         <v>1</v>
       </c>
-      <c r="D56" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1249,9 +1076,6 @@
       <c r="C58" t="n">
         <v>0</v>
       </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1263,64 +1087,49 @@
       <c r="C59" t="n">
         <v>0</v>
       </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1333,9 +1142,6 @@
       <c r="C64" t="n">
         <v>0</v>
       </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1347,9 +1153,6 @@
       <c r="C65" t="n">
         <v>0</v>
       </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1361,22 +1164,16 @@
       <c r="C66" t="n">
         <v>1</v>
       </c>
-      <c r="D66" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1389,22 +1186,16 @@
       <c r="C68" t="n">
         <v>0</v>
       </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1417,50 +1208,38 @@
       <c r="C70" t="n">
         <v>0</v>
       </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1473,22 +1252,16 @@
       <c r="C74" t="n">
         <v>0</v>
       </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
-      </c>
-      <c r="D75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1501,50 +1274,38 @@
       <c r="C76" t="n">
         <v>0</v>
       </c>
-      <c r="D76" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
-      </c>
-      <c r="D77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1557,78 +1318,60 @@
       <c r="C80" t="n">
         <v>0</v>
       </c>
-      <c r="D80" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
-      </c>
-      <c r="D83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
-      </c>
-      <c r="D85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1641,9 +1384,6 @@
       <c r="C86" t="n">
         <v>0</v>
       </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1655,22 +1395,16 @@
       <c r="C87" t="n">
         <v>0</v>
       </c>
-      <c r="D87" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
-      </c>
-      <c r="D88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1683,9 +1417,6 @@
       <c r="C89" t="n">
         <v>0</v>
       </c>
-      <c r="D89" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1697,9 +1428,6 @@
       <c r="C90" t="n">
         <v>0</v>
       </c>
-      <c r="D90" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1711,9 +1439,6 @@
       <c r="C91" t="n">
         <v>0</v>
       </c>
-      <c r="D91" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1725,50 +1450,38 @@
       <c r="C92" t="n">
         <v>1</v>
       </c>
-      <c r="D92" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
-      </c>
-      <c r="D94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
-      </c>
-      <c r="D95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -1781,22 +1494,16 @@
       <c r="C96" t="n">
         <v>0</v>
       </c>
-      <c r="D96" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
-      </c>
-      <c r="D97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -1809,9 +1516,6 @@
       <c r="C98" t="n">
         <v>0</v>
       </c>
-      <c r="D98" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -1823,9 +1527,6 @@
       <c r="C99" t="n">
         <v>0</v>
       </c>
-      <c r="D99" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -1837,22 +1538,16 @@
       <c r="C100" t="n">
         <v>1</v>
       </c>
-      <c r="D100" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1865,36 +1560,27 @@
       <c r="C102" t="n">
         <v>0</v>
       </c>
-      <c r="D102" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B103" t="n">
         <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
-      </c>
-      <c r="D104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -1907,9 +1593,6 @@
       <c r="C105" t="n">
         <v>0</v>
       </c>
-      <c r="D105" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -1921,9 +1604,6 @@
       <c r="C106" t="n">
         <v>0</v>
       </c>
-      <c r="D106" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -1935,50 +1615,38 @@
       <c r="C107" t="n">
         <v>1</v>
       </c>
-      <c r="D107" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
-      </c>
-      <c r="D108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
-      </c>
-      <c r="D109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1991,9 +1659,6 @@
       <c r="C111" t="n">
         <v>0</v>
       </c>
-      <c r="D111" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2005,22 +1670,16 @@
       <c r="C112" t="n">
         <v>0</v>
       </c>
-      <c r="D112" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
-      </c>
-      <c r="D113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2033,22 +1692,16 @@
       <c r="C114" t="n">
         <v>0</v>
       </c>
-      <c r="D114" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -2061,9 +1714,6 @@
       <c r="C116" t="n">
         <v>0</v>
       </c>
-      <c r="D116" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -2075,78 +1725,60 @@
       <c r="C117" t="n">
         <v>0</v>
       </c>
-      <c r="D117" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
-      </c>
-      <c r="D118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
-      </c>
-      <c r="D120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -2159,9 +1791,6 @@
       <c r="C123" t="n">
         <v>1</v>
       </c>
-      <c r="D123" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -2173,9 +1802,6 @@
       <c r="C124" t="n">
         <v>0</v>
       </c>
-      <c r="D124" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -2187,9 +1813,6 @@
       <c r="C125" t="n">
         <v>1</v>
       </c>
-      <c r="D125" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -2201,22 +1824,16 @@
       <c r="C126" t="n">
         <v>0</v>
       </c>
-      <c r="D126" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
-      </c>
-      <c r="D127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -2229,22 +1846,16 @@
       <c r="C128" t="n">
         <v>1</v>
       </c>
-      <c r="D128" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -2257,36 +1868,27 @@
       <c r="C130" t="n">
         <v>0</v>
       </c>
-      <c r="D130" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
-      </c>
-      <c r="D131" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -2299,9 +1901,6 @@
       <c r="C133" t="n">
         <v>0</v>
       </c>
-      <c r="D133" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -2313,64 +1912,49 @@
       <c r="C134" t="n">
         <v>0</v>
       </c>
-      <c r="D134" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B137" t="n">
         <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
-      </c>
-      <c r="D138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -2383,9 +1967,6 @@
       <c r="C139" t="n">
         <v>0</v>
       </c>
-      <c r="D139" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -2397,36 +1978,27 @@
       <c r="C140" t="n">
         <v>0</v>
       </c>
-      <c r="D140" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
         <v>0</v>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
-      </c>
-      <c r="D141" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
-      </c>
-      <c r="D142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -2439,21 +2011,15 @@
       <c r="C143" t="n">
         <v>1</v>
       </c>
-      <c r="D143" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
         <v>0</v>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
-      </c>
-      <c r="D144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2467,9 +2033,6 @@
       <c r="C145" t="n">
         <v>0</v>
       </c>
-      <c r="D145" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -2481,9 +2044,6 @@
       <c r="C146" t="n">
         <v>0</v>
       </c>
-      <c r="D146" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -2495,22 +2055,16 @@
       <c r="C147" t="n">
         <v>0</v>
       </c>
-      <c r="D147" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -2523,36 +2077,27 @@
       <c r="C149" t="n">
         <v>0</v>
       </c>
-      <c r="D149" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
-      </c>
-      <c r="D150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
-      </c>
-      <c r="D151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -2565,22 +2110,16 @@
       <c r="C152" t="n">
         <v>0</v>
       </c>
-      <c r="D152" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
-      </c>
-      <c r="D153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -2593,9 +2132,6 @@
       <c r="C154" t="n">
         <v>1</v>
       </c>
-      <c r="D154" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -2607,9 +2143,6 @@
       <c r="C155" t="n">
         <v>0</v>
       </c>
-      <c r="D155" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -2621,9 +2154,6 @@
       <c r="C156" t="n">
         <v>1</v>
       </c>
-      <c r="D156" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -2635,36 +2165,27 @@
       <c r="C157" t="n">
         <v>0</v>
       </c>
-      <c r="D157" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>1</v>
-      </c>
-      <c r="D158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B159" t="n">
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
-      </c>
-      <c r="D159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -2677,9 +2198,6 @@
       <c r="C160" t="n">
         <v>0</v>
       </c>
-      <c r="D160" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -2691,64 +2209,49 @@
       <c r="C161" t="n">
         <v>0</v>
       </c>
-      <c r="D161" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
-      </c>
-      <c r="D162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
-      </c>
-      <c r="D163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
-      </c>
-      <c r="D164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2761,9 +2264,6 @@
       <c r="C166" t="n">
         <v>1</v>
       </c>
-      <c r="D166" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -2775,9 +2275,6 @@
       <c r="C167" t="n">
         <v>1</v>
       </c>
-      <c r="D167" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -2789,50 +2286,38 @@
       <c r="C168" t="n">
         <v>0</v>
       </c>
-      <c r="D168" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
-      </c>
-      <c r="D169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
-      </c>
-      <c r="D170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
-      </c>
-      <c r="D171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -2845,9 +2330,6 @@
       <c r="C172" t="n">
         <v>1</v>
       </c>
-      <c r="D172" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -2859,9 +2341,6 @@
       <c r="C173" t="n">
         <v>0</v>
       </c>
-      <c r="D173" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -2873,50 +2352,38 @@
       <c r="C174" t="n">
         <v>0</v>
       </c>
-      <c r="D174" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
-      </c>
-      <c r="D175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
-      </c>
-      <c r="D176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
-      </c>
-      <c r="D177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2929,36 +2396,27 @@
       <c r="C178" t="n">
         <v>0</v>
       </c>
-      <c r="D178" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
-      </c>
-      <c r="D179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
-      </c>
-      <c r="D180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -2971,64 +2429,49 @@
       <c r="C181" t="n">
         <v>0</v>
       </c>
-      <c r="D181" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B182" t="n">
         <v>0</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
-      </c>
-      <c r="D182" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
-      </c>
-      <c r="D184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
-      </c>
-      <c r="D185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -3041,22 +2484,16 @@
       <c r="C186" t="n">
         <v>1</v>
       </c>
-      <c r="D186" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
-      </c>
-      <c r="D187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -3069,9 +2506,6 @@
       <c r="C188" t="n">
         <v>1</v>
       </c>
-      <c r="D188" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -3083,9 +2517,6 @@
       <c r="C189" t="n">
         <v>0</v>
       </c>
-      <c r="D189" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -3097,50 +2528,38 @@
       <c r="C190" t="n">
         <v>1</v>
       </c>
-      <c r="D190" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
-      </c>
-      <c r="D191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
-      </c>
-      <c r="D192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
-      </c>
-      <c r="D193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -3153,50 +2572,38 @@
       <c r="C194" t="n">
         <v>0</v>
       </c>
-      <c r="D194" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
-      </c>
-      <c r="D195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
-      </c>
-      <c r="D196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B197" t="n">
         <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
-      </c>
-      <c r="D197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -3204,12 +2611,9 @@
         <v>1</v>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
-      </c>
-      <c r="D198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3223,36 +2627,27 @@
       <c r="C199" t="n">
         <v>0</v>
       </c>
-      <c r="D199" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
-      </c>
-      <c r="D200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>1</v>
-      </c>
-      <c r="D201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -3265,9 +2660,6 @@
       <c r="C202" t="n">
         <v>0</v>
       </c>
-      <c r="D202" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -3279,22 +2671,16 @@
       <c r="C203" t="n">
         <v>1</v>
       </c>
-      <c r="D203" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
-      </c>
-      <c r="D204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -3307,22 +2693,16 @@
       <c r="C205" t="n">
         <v>0</v>
       </c>
-      <c r="D205" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
-      </c>
-      <c r="D206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -3335,22 +2715,16 @@
       <c r="C207" t="n">
         <v>0</v>
       </c>
-      <c r="D207" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
-      </c>
-      <c r="D208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -3363,9 +2737,6 @@
       <c r="C209" t="n">
         <v>0</v>
       </c>
-      <c r="D209" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -3377,9 +2748,6 @@
       <c r="C210" t="n">
         <v>0</v>
       </c>
-      <c r="D210" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -3391,22 +2759,16 @@
       <c r="C211" t="n">
         <v>1</v>
       </c>
-      <c r="D211" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
-      </c>
-      <c r="D212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -3419,36 +2781,27 @@
       <c r="C213" t="n">
         <v>0</v>
       </c>
-      <c r="D213" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
-      </c>
-      <c r="D214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
-      </c>
-      <c r="D215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -3461,9 +2814,6 @@
       <c r="C216" t="n">
         <v>0</v>
       </c>
-      <c r="D216" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -3475,9 +2825,6 @@
       <c r="C217" t="n">
         <v>0</v>
       </c>
-      <c r="D217" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -3489,9 +2836,6 @@
       <c r="C218" t="n">
         <v>0</v>
       </c>
-      <c r="D218" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -3503,9 +2847,6 @@
       <c r="C219" t="n">
         <v>0</v>
       </c>
-      <c r="D219" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -3517,22 +2858,16 @@
       <c r="C220" t="n">
         <v>0</v>
       </c>
-      <c r="D220" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
-      </c>
-      <c r="D221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -3545,9 +2880,6 @@
       <c r="C222" t="n">
         <v>0</v>
       </c>
-      <c r="D222" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -3559,21 +2891,15 @@
       <c r="C223" t="n">
         <v>0</v>
       </c>
-      <c r="D223" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
         <v>0</v>
       </c>
       <c r="B224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
-      </c>
-      <c r="D224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3587,36 +2913,27 @@
       <c r="C225" t="n">
         <v>0</v>
       </c>
-      <c r="D225" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>1</v>
-      </c>
-      <c r="D226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
-      </c>
-      <c r="D227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -3629,22 +2946,16 @@
       <c r="C228" t="n">
         <v>1</v>
       </c>
-      <c r="D228" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C229" t="n">
-        <v>1</v>
-      </c>
-      <c r="D229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -3657,22 +2968,16 @@
       <c r="C230" t="n">
         <v>0</v>
       </c>
-      <c r="D230" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C231" t="n">
-        <v>1</v>
-      </c>
-      <c r="D231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -3685,50 +2990,38 @@
       <c r="C232" t="n">
         <v>0</v>
       </c>
-      <c r="D232" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
-      </c>
-      <c r="D233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
-      </c>
-      <c r="D234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>1</v>
-      </c>
-      <c r="D235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -3741,9 +3034,6 @@
       <c r="C236" t="n">
         <v>0</v>
       </c>
-      <c r="D236" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -3755,9 +3045,6 @@
       <c r="C237" t="n">
         <v>1</v>
       </c>
-      <c r="D237" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -3769,9 +3056,6 @@
       <c r="C238" t="n">
         <v>0</v>
       </c>
-      <c r="D238" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -3783,36 +3067,27 @@
       <c r="C239" t="n">
         <v>0</v>
       </c>
-      <c r="D239" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
-      </c>
-      <c r="D240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
-      </c>
-      <c r="D241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -3825,22 +3100,16 @@
       <c r="C242" t="n">
         <v>0</v>
       </c>
-      <c r="D242" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
-      </c>
-      <c r="D243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -3853,22 +3122,16 @@
       <c r="C244" t="n">
         <v>0</v>
       </c>
-      <c r="D244" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
-      </c>
-      <c r="D245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -3881,22 +3144,16 @@
       <c r="C246" t="n">
         <v>0</v>
       </c>
-      <c r="D246" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
-      </c>
-      <c r="D247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -3909,9 +3166,6 @@
       <c r="C248" t="n">
         <v>1</v>
       </c>
-      <c r="D248" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -3923,9 +3177,6 @@
       <c r="C249" t="n">
         <v>0</v>
       </c>
-      <c r="D249" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -3937,9 +3188,6 @@
       <c r="C250" t="n">
         <v>0</v>
       </c>
-      <c r="D250" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -3951,50 +3199,38 @@
       <c r="C251" t="n">
         <v>0</v>
       </c>
-      <c r="D251" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C252" t="n">
-        <v>1</v>
-      </c>
-      <c r="D252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>1</v>
-      </c>
-      <c r="D253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C254" t="n">
-        <v>0</v>
-      </c>
-      <c r="D254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -4007,22 +3243,16 @@
       <c r="C255" t="n">
         <v>0</v>
       </c>
-      <c r="D255" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>1</v>
-      </c>
-      <c r="D256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -4035,9 +3265,6 @@
       <c r="C257" t="n">
         <v>0</v>
       </c>
-      <c r="D257" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -4049,22 +3276,16 @@
       <c r="C258" t="n">
         <v>0</v>
       </c>
-      <c r="D258" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
-      </c>
-      <c r="D259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -4077,36 +3298,27 @@
       <c r="C260" t="n">
         <v>1</v>
       </c>
-      <c r="D260" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
-      </c>
-      <c r="D261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C262" t="n">
-        <v>1</v>
-      </c>
-      <c r="D262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -4119,9 +3331,6 @@
       <c r="C263" t="n">
         <v>1</v>
       </c>
-      <c r="D263" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -4133,9 +3342,6 @@
       <c r="C264" t="n">
         <v>0</v>
       </c>
-      <c r="D264" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -4147,9 +3353,6 @@
       <c r="C265" t="n">
         <v>0</v>
       </c>
-      <c r="D265" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -4161,9 +3364,6 @@
       <c r="C266" t="n">
         <v>0</v>
       </c>
-      <c r="D266" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -4175,9 +3375,6 @@
       <c r="C267" t="n">
         <v>0</v>
       </c>
-      <c r="D267" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -4189,9 +3386,6 @@
       <c r="C268" t="n">
         <v>0</v>
       </c>
-      <c r="D268" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -4203,50 +3397,38 @@
       <c r="C269" t="n">
         <v>1</v>
       </c>
-      <c r="D269" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C270" t="n">
-        <v>0</v>
-      </c>
-      <c r="D270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C271" t="n">
-        <v>0</v>
-      </c>
-      <c r="D271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B272" t="n">
         <v>1</v>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
-      </c>
-      <c r="D272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -4259,9 +3441,6 @@
       <c r="C273" t="n">
         <v>0</v>
       </c>
-      <c r="D273" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -4273,9 +3452,6 @@
       <c r="C274" t="n">
         <v>0</v>
       </c>
-      <c r="D274" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -4287,22 +3463,16 @@
       <c r="C275" t="n">
         <v>0</v>
       </c>
-      <c r="D275" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C276" t="n">
-        <v>1</v>
-      </c>
-      <c r="D276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -4315,9 +3485,6 @@
       <c r="C277" t="n">
         <v>0</v>
       </c>
-      <c r="D277" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -4329,22 +3496,16 @@
       <c r="C278" t="n">
         <v>0</v>
       </c>
-      <c r="D278" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C279" t="n">
-        <v>0</v>
-      </c>
-      <c r="D279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -4357,9 +3518,6 @@
       <c r="C280" t="n">
         <v>0</v>
       </c>
-      <c r="D280" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -4371,22 +3529,16 @@
       <c r="C281" t="n">
         <v>1</v>
       </c>
-      <c r="D281" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
-      </c>
-      <c r="D282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -4399,22 +3551,16 @@
       <c r="C283" t="n">
         <v>0</v>
       </c>
-      <c r="D283" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C284" t="n">
-        <v>1</v>
-      </c>
-      <c r="D284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -4427,9 +3573,6 @@
       <c r="C285" t="n">
         <v>0</v>
       </c>
-      <c r="D285" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -4441,9 +3584,6 @@
       <c r="C286" t="n">
         <v>0</v>
       </c>
-      <c r="D286" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -4455,9 +3595,6 @@
       <c r="C287" t="n">
         <v>0</v>
       </c>
-      <c r="D287" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -4469,64 +3606,49 @@
       <c r="C288" t="n">
         <v>0</v>
       </c>
-      <c r="D288" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C289" t="n">
-        <v>0</v>
-      </c>
-      <c r="D289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C290" t="n">
-        <v>1</v>
-      </c>
-      <c r="D290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C291" t="n">
-        <v>1</v>
-      </c>
-      <c r="D291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C292" t="n">
-        <v>1</v>
-      </c>
-      <c r="D292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -4539,9 +3661,6 @@
       <c r="C293" t="n">
         <v>0</v>
       </c>
-      <c r="D293" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -4553,9 +3672,6 @@
       <c r="C294" t="n">
         <v>0</v>
       </c>
-      <c r="D294" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -4567,9 +3683,6 @@
       <c r="C295" t="n">
         <v>0</v>
       </c>
-      <c r="D295" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -4581,9 +3694,6 @@
       <c r="C296" t="n">
         <v>1</v>
       </c>
-      <c r="D296" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -4595,9 +3705,6 @@
       <c r="C297" t="n">
         <v>0</v>
       </c>
-      <c r="D297" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -4609,9 +3716,6 @@
       <c r="C298" t="n">
         <v>0</v>
       </c>
-      <c r="D298" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -4623,36 +3727,27 @@
       <c r="C299" t="n">
         <v>0</v>
       </c>
-      <c r="D299" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C300" t="n">
-        <v>1</v>
-      </c>
-      <c r="D300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C301" t="n">
-        <v>0</v>
-      </c>
-      <c r="D301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -4665,64 +3760,49 @@
       <c r="C302" t="n">
         <v>0</v>
       </c>
-      <c r="D302" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B303" t="n">
         <v>0</v>
       </c>
       <c r="C303" t="n">
-        <v>1</v>
-      </c>
-      <c r="D303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
-      </c>
-      <c r="D304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B305" t="n">
         <v>1</v>
       </c>
       <c r="C305" t="n">
-        <v>0</v>
-      </c>
-      <c r="D305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C306" t="n">
-        <v>1</v>
-      </c>
-      <c r="D306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -4735,148 +3815,115 @@
       <c r="C307" t="n">
         <v>0</v>
       </c>
-      <c r="D307" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C308" t="n">
-        <v>1</v>
-      </c>
-      <c r="D308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C309" t="n">
-        <v>1</v>
-      </c>
-      <c r="D309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C310" t="n">
-        <v>1</v>
-      </c>
-      <c r="D310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C311" t="n">
-        <v>0</v>
-      </c>
-      <c r="D311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C312" t="n">
-        <v>0</v>
-      </c>
-      <c r="D312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
-      </c>
-      <c r="D313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C314" t="n">
-        <v>1</v>
-      </c>
-      <c r="D314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C315" t="n">
-        <v>1</v>
-      </c>
-      <c r="D315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C316" t="n">
-        <v>1</v>
-      </c>
-      <c r="D316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C317" t="n">
-        <v>0</v>
-      </c>
-      <c r="D317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -4889,22 +3936,16 @@
       <c r="C318" t="n">
         <v>1</v>
       </c>
-      <c r="D318" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C319" t="n">
-        <v>1</v>
-      </c>
-      <c r="D319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -4917,9 +3958,6 @@
       <c r="C320" t="n">
         <v>0</v>
       </c>
-      <c r="D320" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -4931,9 +3969,6 @@
       <c r="C321" t="n">
         <v>0</v>
       </c>
-      <c r="D321" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -4945,22 +3980,16 @@
       <c r="C322" t="n">
         <v>0</v>
       </c>
-      <c r="D322" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C323" t="n">
-        <v>1</v>
-      </c>
-      <c r="D323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
@@ -4973,9 +4002,6 @@
       <c r="C324" t="n">
         <v>0</v>
       </c>
-      <c r="D324" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -4987,22 +4013,16 @@
       <c r="C325" t="n">
         <v>1</v>
       </c>
-      <c r="D325" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C326" t="n">
-        <v>1</v>
-      </c>
-      <c r="D326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -5015,22 +4035,16 @@
       <c r="C327" t="n">
         <v>0</v>
       </c>
-      <c r="D327" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
-      </c>
-      <c r="D328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -5043,22 +4057,16 @@
       <c r="C329" t="n">
         <v>0</v>
       </c>
-      <c r="D329" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C330" t="n">
-        <v>1</v>
-      </c>
-      <c r="D330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
@@ -5071,22 +4079,16 @@
       <c r="C331" t="n">
         <v>1</v>
       </c>
-      <c r="D331" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C332" t="n">
-        <v>0</v>
-      </c>
-      <c r="D332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -5099,9 +4101,6 @@
       <c r="C333" t="n">
         <v>0</v>
       </c>
-      <c r="D333" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -5113,22 +4112,16 @@
       <c r="C334" t="n">
         <v>0</v>
       </c>
-      <c r="D334" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B335" t="n">
         <v>0</v>
       </c>
       <c r="C335" t="n">
-        <v>1</v>
-      </c>
-      <c r="D335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -5141,22 +4134,16 @@
       <c r="C336" t="n">
         <v>1</v>
       </c>
-      <c r="D336" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C337" t="n">
-        <v>0</v>
-      </c>
-      <c r="D337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -5169,22 +4156,16 @@
       <c r="C338" t="n">
         <v>0</v>
       </c>
-      <c r="D338" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C339" t="n">
-        <v>1</v>
-      </c>
-      <c r="D339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
@@ -5197,22 +4178,16 @@
       <c r="C340" t="n">
         <v>1</v>
       </c>
-      <c r="D340" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C341" t="n">
-        <v>0</v>
-      </c>
-      <c r="D341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
@@ -5225,9 +4200,6 @@
       <c r="C342" t="n">
         <v>0</v>
       </c>
-      <c r="D342" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -5239,36 +4211,27 @@
       <c r="C343" t="n">
         <v>1</v>
       </c>
-      <c r="D343" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C344" t="n">
-        <v>1</v>
-      </c>
-      <c r="D344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C345" t="n">
-        <v>1</v>
-      </c>
-      <c r="D345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
@@ -5281,9 +4244,6 @@
       <c r="C346" t="n">
         <v>1</v>
       </c>
-      <c r="D346" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -5295,9 +4255,6 @@
       <c r="C347" t="n">
         <v>0</v>
       </c>
-      <c r="D347" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -5309,9 +4266,6 @@
       <c r="C348" t="n">
         <v>0</v>
       </c>
-      <c r="D348" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -5323,9 +4277,6 @@
       <c r="C349" t="n">
         <v>1</v>
       </c>
-      <c r="D349" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -5337,22 +4288,16 @@
       <c r="C350" t="n">
         <v>0</v>
       </c>
-      <c r="D350" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C351" t="n">
-        <v>1</v>
-      </c>
-      <c r="D351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -5365,22 +4310,16 @@
       <c r="C352" t="n">
         <v>0</v>
       </c>
-      <c r="D352" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C353" t="n">
-        <v>0</v>
-      </c>
-      <c r="D353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -5393,9 +4332,6 @@
       <c r="C354" t="n">
         <v>1</v>
       </c>
-      <c r="D354" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -5407,22 +4343,16 @@
       <c r="C355" t="n">
         <v>0</v>
       </c>
-      <c r="D355" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C356" t="n">
-        <v>1</v>
-      </c>
-      <c r="D356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
@@ -5435,9 +4365,6 @@
       <c r="C357" t="n">
         <v>0</v>
       </c>
-      <c r="D357" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -5449,9 +4376,6 @@
       <c r="C358" t="n">
         <v>0</v>
       </c>
-      <c r="D358" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -5463,22 +4387,16 @@
       <c r="C359" t="n">
         <v>1</v>
       </c>
-      <c r="D359" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C360" t="n">
-        <v>1</v>
-      </c>
-      <c r="D360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
@@ -5491,9 +4409,6 @@
       <c r="C361" t="n">
         <v>0</v>
       </c>
-      <c r="D361" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -5505,22 +4420,16 @@
       <c r="C362" t="n">
         <v>1</v>
       </c>
-      <c r="D362" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C363" t="n">
-        <v>0</v>
-      </c>
-      <c r="D363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
@@ -5533,22 +4442,16 @@
       <c r="C364" t="n">
         <v>0</v>
       </c>
-      <c r="D364" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C365" t="n">
-        <v>1</v>
-      </c>
-      <c r="D365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
@@ -5561,9 +4464,6 @@
       <c r="C366" t="n">
         <v>1</v>
       </c>
-      <c r="D366" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -5575,9 +4475,6 @@
       <c r="C367" t="n">
         <v>0</v>
       </c>
-      <c r="D367" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -5589,9 +4486,6 @@
       <c r="C368" t="n">
         <v>1</v>
       </c>
-      <c r="D368" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -5603,9 +4497,6 @@
       <c r="C369" t="n">
         <v>1</v>
       </c>
-      <c r="D369" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -5617,9 +4508,6 @@
       <c r="C370" t="n">
         <v>0</v>
       </c>
-      <c r="D370" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -5631,50 +4519,38 @@
       <c r="C371" t="n">
         <v>0</v>
       </c>
-      <c r="D371" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C372" t="n">
-        <v>0</v>
-      </c>
-      <c r="D372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C373" t="n">
-        <v>1</v>
-      </c>
-      <c r="D373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C374" t="n">
-        <v>0</v>
-      </c>
-      <c r="D374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
@@ -5687,9 +4563,6 @@
       <c r="C375" t="n">
         <v>0</v>
       </c>
-      <c r="D375" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -5701,9 +4574,6 @@
       <c r="C376" t="n">
         <v>0</v>
       </c>
-      <c r="D376" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -5715,22 +4585,16 @@
       <c r="C377" t="n">
         <v>0</v>
       </c>
-      <c r="D377" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C378" t="n">
-        <v>0</v>
-      </c>
-      <c r="D378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
@@ -5743,9 +4607,6 @@
       <c r="C379" t="n">
         <v>0</v>
       </c>
-      <c r="D379" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -5757,9 +4618,6 @@
       <c r="C380" t="n">
         <v>1</v>
       </c>
-      <c r="D380" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -5771,22 +4629,16 @@
       <c r="C381" t="n">
         <v>0</v>
       </c>
-      <c r="D381" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C382" t="n">
-        <v>0</v>
-      </c>
-      <c r="D382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
@@ -5799,9 +4651,6 @@
       <c r="C383" t="n">
         <v>0</v>
       </c>
-      <c r="D383" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -5813,9 +4662,6 @@
       <c r="C384" t="n">
         <v>1</v>
       </c>
-      <c r="D384" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -5827,9 +4673,6 @@
       <c r="C385" t="n">
         <v>1</v>
       </c>
-      <c r="D385" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -5841,9 +4684,6 @@
       <c r="C386" t="n">
         <v>0</v>
       </c>
-      <c r="D386" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -5855,22 +4695,16 @@
       <c r="C387" t="n">
         <v>1</v>
       </c>
-      <c r="D387" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>1</v>
-      </c>
-      <c r="D388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
@@ -5883,9 +4717,6 @@
       <c r="C389" t="n">
         <v>0</v>
       </c>
-      <c r="D389" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -5897,21 +4728,15 @@
       <c r="C390" t="n">
         <v>1</v>
       </c>
-      <c r="D390" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
         <v>1</v>
       </c>
       <c r="B391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
-      </c>
-      <c r="D391" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5925,9 +4750,6 @@
       <c r="C392" t="n">
         <v>0</v>
       </c>
-      <c r="D392" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -5939,50 +4761,38 @@
       <c r="C393" t="n">
         <v>1</v>
       </c>
-      <c r="D393" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C394" t="n">
-        <v>0</v>
-      </c>
-      <c r="D394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C395" t="n">
-        <v>0</v>
-      </c>
-      <c r="D395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C396" t="n">
-        <v>0</v>
-      </c>
-      <c r="D396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
@@ -5995,9 +4805,6 @@
       <c r="C397" t="n">
         <v>0</v>
       </c>
-      <c r="D397" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -6009,9 +4816,6 @@
       <c r="C398" t="n">
         <v>0</v>
       </c>
-      <c r="D398" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -6023,9 +4827,6 @@
       <c r="C399" t="n">
         <v>0</v>
       </c>
-      <c r="D399" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -6037,9 +4838,6 @@
       <c r="C400" t="n">
         <v>1</v>
       </c>
-      <c r="D400" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -6051,22 +4849,16 @@
       <c r="C401" t="n">
         <v>0</v>
       </c>
-      <c r="D401" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C402" t="n">
-        <v>1</v>
-      </c>
-      <c r="D402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
@@ -6079,9 +4871,6 @@
       <c r="C403" t="n">
         <v>0</v>
       </c>
-      <c r="D403" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -6093,36 +4882,27 @@
       <c r="C404" t="n">
         <v>0</v>
       </c>
-      <c r="D404" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C405" t="n">
-        <v>1</v>
-      </c>
-      <c r="D405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C406" t="n">
-        <v>1</v>
-      </c>
-      <c r="D406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -6135,22 +4915,16 @@
       <c r="C407" t="n">
         <v>1</v>
       </c>
-      <c r="D407" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C408" t="n">
-        <v>1</v>
-      </c>
-      <c r="D408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
@@ -6163,36 +4937,27 @@
       <c r="C409" t="n">
         <v>0</v>
       </c>
-      <c r="D409" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B410" t="n">
         <v>0</v>
       </c>
       <c r="C410" t="n">
-        <v>1</v>
-      </c>
-      <c r="D410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C411" t="n">
-        <v>0</v>
-      </c>
-      <c r="D411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
@@ -6205,9 +4970,6 @@
       <c r="C412" t="n">
         <v>1</v>
       </c>
-      <c r="D412" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -6219,22 +4981,16 @@
       <c r="C413" t="n">
         <v>0</v>
       </c>
-      <c r="D413" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C414" t="n">
-        <v>0</v>
-      </c>
-      <c r="D414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
@@ -6247,22 +5003,16 @@
       <c r="C415" t="n">
         <v>1</v>
       </c>
-      <c r="D415" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C416" t="n">
-        <v>1</v>
-      </c>
-      <c r="D416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
@@ -6275,9 +5025,6 @@
       <c r="C417" t="n">
         <v>1</v>
       </c>
-      <c r="D417" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -6289,9 +5036,6 @@
       <c r="C418" t="n">
         <v>1</v>
       </c>
-      <c r="D418" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -6303,22 +5047,16 @@
       <c r="C419" t="n">
         <v>0</v>
       </c>
-      <c r="D419" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C420" t="n">
-        <v>0</v>
-      </c>
-      <c r="D420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -6331,22 +5069,16 @@
       <c r="C421" t="n">
         <v>0</v>
       </c>
-      <c r="D421" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C422" t="n">
-        <v>1</v>
-      </c>
-      <c r="D422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
@@ -6359,22 +5091,16 @@
       <c r="C423" t="n">
         <v>0</v>
       </c>
-      <c r="D423" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C424" t="n">
-        <v>1</v>
-      </c>
-      <c r="D424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -6387,36 +5113,27 @@
       <c r="C425" t="n">
         <v>0</v>
       </c>
-      <c r="D425" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C426" t="n">
-        <v>1</v>
-      </c>
-      <c r="D426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C427" t="n">
-        <v>0</v>
-      </c>
-      <c r="D427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
@@ -6429,22 +5146,16 @@
       <c r="C428" t="n">
         <v>0</v>
       </c>
-      <c r="D428" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C429" t="n">
-        <v>0</v>
-      </c>
-      <c r="D429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
@@ -6457,22 +5168,16 @@
       <c r="C430" t="n">
         <v>0</v>
       </c>
-      <c r="D430" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C431" t="n">
-        <v>1</v>
-      </c>
-      <c r="D431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
@@ -6485,9 +5190,6 @@
       <c r="C432" t="n">
         <v>1</v>
       </c>
-      <c r="D432" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -6499,9 +5201,6 @@
       <c r="C433" t="n">
         <v>1</v>
       </c>
-      <c r="D433" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -6513,22 +5212,16 @@
       <c r="C434" t="n">
         <v>1</v>
       </c>
-      <c r="D434" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C435" t="n">
-        <v>1</v>
-      </c>
-      <c r="D435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
@@ -6541,9 +5234,6 @@
       <c r="C436" t="n">
         <v>0</v>
       </c>
-      <c r="D436" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -6555,50 +5245,38 @@
       <c r="C437" t="n">
         <v>1</v>
       </c>
-      <c r="D437" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
-      </c>
-      <c r="D438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C439" t="n">
-        <v>1</v>
-      </c>
-      <c r="D439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C440" t="n">
-        <v>0</v>
-      </c>
-      <c r="D440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
@@ -6611,9 +5289,6 @@
       <c r="C441" t="n">
         <v>0</v>
       </c>
-      <c r="D441" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -6625,22 +5300,16 @@
       <c r="C442" t="n">
         <v>0</v>
       </c>
-      <c r="D442" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C443" t="n">
-        <v>0</v>
-      </c>
-      <c r="D443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
@@ -6653,9 +5322,6 @@
       <c r="C444" t="n">
         <v>1</v>
       </c>
-      <c r="D444" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -6667,9 +5333,6 @@
       <c r="C445" t="n">
         <v>0</v>
       </c>
-      <c r="D445" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -6681,22 +5344,16 @@
       <c r="C446" t="n">
         <v>1</v>
       </c>
-      <c r="D446" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C447" t="n">
-        <v>1</v>
-      </c>
-      <c r="D447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
@@ -6709,50 +5366,38 @@
       <c r="C448" t="n">
         <v>1</v>
       </c>
-      <c r="D448" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C449" t="n">
-        <v>1</v>
-      </c>
-      <c r="D449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C450" t="n">
-        <v>0</v>
-      </c>
-      <c r="D450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C451" t="n">
-        <v>1</v>
-      </c>
-      <c r="D451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
@@ -6765,22 +5410,16 @@
       <c r="C452" t="n">
         <v>0</v>
       </c>
-      <c r="D452" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C453" t="n">
-        <v>0</v>
-      </c>
-      <c r="D453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
@@ -6793,22 +5432,16 @@
       <c r="C454" t="n">
         <v>0</v>
       </c>
-      <c r="D454" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C455" t="n">
-        <v>0</v>
-      </c>
-      <c r="D455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
@@ -6821,9 +5454,6 @@
       <c r="C456" t="n">
         <v>0</v>
       </c>
-      <c r="D456" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -6835,9 +5465,6 @@
       <c r="C457" t="n">
         <v>1</v>
       </c>
-      <c r="D457" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -6849,22 +5476,16 @@
       <c r="C458" t="n">
         <v>0</v>
       </c>
-      <c r="D458" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C459" t="n">
-        <v>0</v>
-      </c>
-      <c r="D459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
@@ -6877,36 +5498,27 @@
       <c r="C460" t="n">
         <v>0</v>
       </c>
-      <c r="D460" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C461" t="n">
-        <v>1</v>
-      </c>
-      <c r="D461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B462" t="n">
         <v>0</v>
       </c>
       <c r="C462" t="n">
-        <v>1</v>
-      </c>
-      <c r="D462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
@@ -6919,9 +5531,6 @@
       <c r="C463" t="n">
         <v>1</v>
       </c>
-      <c r="D463" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -6933,9 +5542,6 @@
       <c r="C464" t="n">
         <v>1</v>
       </c>
-      <c r="D464" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -6947,36 +5553,27 @@
       <c r="C465" t="n">
         <v>1</v>
       </c>
-      <c r="D465" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C466" t="n">
-        <v>0</v>
-      </c>
-      <c r="D466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C467" t="n">
-        <v>0</v>
-      </c>
-      <c r="D467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
@@ -6989,9 +5586,6 @@
       <c r="C468" t="n">
         <v>0</v>
       </c>
-      <c r="D468" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -7003,22 +5597,16 @@
       <c r="C469" t="n">
         <v>1</v>
       </c>
-      <c r="D469" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C470" t="n">
-        <v>1</v>
-      </c>
-      <c r="D470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
@@ -7031,36 +5619,27 @@
       <c r="C471" t="n">
         <v>1</v>
       </c>
-      <c r="D471" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C472" t="n">
-        <v>0</v>
-      </c>
-      <c r="D472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C473" t="n">
-        <v>1</v>
-      </c>
-      <c r="D473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
@@ -7073,9 +5652,6 @@
       <c r="C474" t="n">
         <v>0</v>
       </c>
-      <c r="D474" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -7087,22 +5663,16 @@
       <c r="C475" t="n">
         <v>0</v>
       </c>
-      <c r="D475" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C476" t="n">
-        <v>1</v>
-      </c>
-      <c r="D476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
@@ -7115,50 +5685,38 @@
       <c r="C477" t="n">
         <v>1</v>
       </c>
-      <c r="D477" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C478" t="n">
-        <v>0</v>
-      </c>
-      <c r="D478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C479" t="n">
-        <v>1</v>
-      </c>
-      <c r="D479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C480" t="n">
-        <v>1</v>
-      </c>
-      <c r="D480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
@@ -7171,9 +5729,6 @@
       <c r="C481" t="n">
         <v>0</v>
       </c>
-      <c r="D481" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -7185,21 +5740,15 @@
       <c r="C482" t="n">
         <v>1</v>
       </c>
-      <c r="D482" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
         <v>0</v>
       </c>
       <c r="B483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C483" t="n">
-        <v>0</v>
-      </c>
-      <c r="D483" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7213,9 +5762,6 @@
       <c r="C484" t="n">
         <v>0</v>
       </c>
-      <c r="D484" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -7227,9 +5773,6 @@
       <c r="C485" t="n">
         <v>1</v>
       </c>
-      <c r="D485" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -7241,9 +5784,6 @@
       <c r="C486" t="n">
         <v>0</v>
       </c>
-      <c r="D486" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -7255,22 +5795,16 @@
       <c r="C487" t="n">
         <v>0</v>
       </c>
-      <c r="D487" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C488" t="n">
-        <v>1</v>
-      </c>
-      <c r="D488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/831MarketingAnalytics/Project/831MarketingProject/output/repayment_predictions.xlsx
+++ b/831MarketingAnalytics/Project/831MarketingProject/output/repayment_predictions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C488"/>
+  <dimension ref="A1:D488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>XGBoost</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>LightGBM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -460,6 +465,9 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -469,6 +477,9 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -480,6 +491,9 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -493,6 +507,9 @@
       <c r="C5" t="n">
         <v>0</v>
       </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -502,6 +519,9 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -513,6 +533,9 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -526,6 +549,9 @@
       <c r="C8" t="n">
         <v>0</v>
       </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -535,6 +561,9 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -548,6 +577,9 @@
       <c r="C10" t="n">
         <v>0</v>
       </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -557,6 +589,9 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -568,6 +603,9 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -576,9 +614,12 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -592,6 +633,9 @@
       <c r="C14" t="n">
         <v>0</v>
       </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -603,6 +647,9 @@
       <c r="C15" t="n">
         <v>0</v>
       </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -612,6 +659,9 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,6 +673,9 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -636,6 +689,9 @@
       <c r="C18" t="n">
         <v>0</v>
       </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -647,6 +703,9 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -658,6 +717,9 @@
       <c r="C20" t="n">
         <v>0</v>
       </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -667,6 +729,9 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -678,6 +743,9 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -689,6 +757,9 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -702,6 +773,9 @@
       <c r="C24" t="n">
         <v>0</v>
       </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -711,6 +785,9 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -722,6 +799,9 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -735,6 +815,9 @@
       <c r="C27" t="n">
         <v>0</v>
       </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -746,6 +829,9 @@
       <c r="C28" t="n">
         <v>0</v>
       </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -757,6 +843,9 @@
       <c r="C29" t="n">
         <v>0</v>
       </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -766,6 +855,9 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -774,10 +866,13 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -790,6 +885,9 @@
       <c r="C32" t="n">
         <v>0</v>
       </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -799,6 +897,9 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -812,6 +913,9 @@
       <c r="C34" t="n">
         <v>0</v>
       </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -823,6 +927,9 @@
       <c r="C35" t="n">
         <v>0</v>
       </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -832,6 +939,9 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -845,6 +955,9 @@
       <c r="C37" t="n">
         <v>0</v>
       </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -856,6 +969,9 @@
       <c r="C38" t="n">
         <v>0</v>
       </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -867,6 +983,9 @@
       <c r="C39" t="n">
         <v>0</v>
       </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -878,6 +997,9 @@
       <c r="C40" t="n">
         <v>0</v>
       </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -887,6 +1009,9 @@
         <v>1</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -900,6 +1025,9 @@
       <c r="C42" t="n">
         <v>0</v>
       </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -911,6 +1039,9 @@
       <c r="C43" t="n">
         <v>0</v>
       </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -922,6 +1053,9 @@
       <c r="C44" t="n">
         <v>0</v>
       </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -933,6 +1067,9 @@
       <c r="C45" t="n">
         <v>0</v>
       </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -942,6 +1079,9 @@
         <v>1</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -950,9 +1090,12 @@
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -966,6 +1109,9 @@
       <c r="C48" t="n">
         <v>0</v>
       </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -975,6 +1121,9 @@
         <v>1</v>
       </c>
       <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -988,6 +1137,9 @@
       <c r="C50" t="n">
         <v>0</v>
       </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -999,6 +1151,9 @@
       <c r="C51" t="n">
         <v>0</v>
       </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1010,6 +1165,9 @@
       <c r="C52" t="n">
         <v>0</v>
       </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1021,6 +1179,9 @@
       <c r="C53" t="n">
         <v>0</v>
       </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1032,6 +1193,9 @@
       <c r="C54" t="n">
         <v>0</v>
       </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1043,16 +1207,22 @@
       <c r="C55" t="n">
         <v>0</v>
       </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>1</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1065,6 +1235,9 @@
       <c r="C57" t="n">
         <v>1</v>
       </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1076,6 +1249,9 @@
       <c r="C58" t="n">
         <v>0</v>
       </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1087,6 +1263,9 @@
       <c r="C59" t="n">
         <v>0</v>
       </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1098,6 +1277,9 @@
       <c r="C60" t="n">
         <v>0</v>
       </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1107,6 +1289,9 @@
         <v>1</v>
       </c>
       <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1120,6 +1305,9 @@
       <c r="C62" t="n">
         <v>0</v>
       </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1129,6 +1317,9 @@
         <v>1</v>
       </c>
       <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1142,6 +1333,9 @@
       <c r="C64" t="n">
         <v>0</v>
       </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1153,6 +1347,9 @@
       <c r="C65" t="n">
         <v>0</v>
       </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1162,6 +1359,9 @@
         <v>1</v>
       </c>
       <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1173,6 +1373,9 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1186,6 +1389,9 @@
       <c r="C68" t="n">
         <v>0</v>
       </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1195,6 +1401,9 @@
         <v>1</v>
       </c>
       <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1208,6 +1417,9 @@
       <c r="C70" t="n">
         <v>0</v>
       </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1217,6 +1429,9 @@
         <v>1</v>
       </c>
       <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1225,9 +1440,12 @@
         <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1241,6 +1459,9 @@
       <c r="C73" t="n">
         <v>0</v>
       </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1252,6 +1473,9 @@
       <c r="C74" t="n">
         <v>0</v>
       </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1263,6 +1487,9 @@
       <c r="C75" t="n">
         <v>0</v>
       </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1274,6 +1501,9 @@
       <c r="C76" t="n">
         <v>0</v>
       </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1285,6 +1515,9 @@
       <c r="C77" t="n">
         <v>0</v>
       </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1294,6 +1527,9 @@
         <v>1</v>
       </c>
       <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1307,6 +1543,9 @@
       <c r="C79" t="n">
         <v>0</v>
       </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1318,6 +1557,9 @@
       <c r="C80" t="n">
         <v>0</v>
       </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1329,6 +1571,9 @@
       <c r="C81" t="n">
         <v>1</v>
       </c>
+      <c r="D81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1338,6 +1583,9 @@
         <v>1</v>
       </c>
       <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1351,6 +1599,9 @@
       <c r="C83" t="n">
         <v>0</v>
       </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1360,6 +1611,9 @@
         <v>1</v>
       </c>
       <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1373,6 +1627,9 @@
       <c r="C85" t="n">
         <v>0</v>
       </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1384,6 +1641,9 @@
       <c r="C86" t="n">
         <v>0</v>
       </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1395,6 +1655,9 @@
       <c r="C87" t="n">
         <v>0</v>
       </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1406,6 +1669,9 @@
       <c r="C88" t="n">
         <v>0</v>
       </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1417,6 +1683,9 @@
       <c r="C89" t="n">
         <v>0</v>
       </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1428,6 +1697,9 @@
       <c r="C90" t="n">
         <v>0</v>
       </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1439,6 +1711,9 @@
       <c r="C91" t="n">
         <v>0</v>
       </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1448,6 +1723,9 @@
         <v>1</v>
       </c>
       <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1456,10 +1734,13 @@
         <v>1</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -1472,6 +1753,9 @@
       <c r="C94" t="n">
         <v>0</v>
       </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -1483,6 +1767,9 @@
       <c r="C95" t="n">
         <v>0</v>
       </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -1494,6 +1781,9 @@
       <c r="C96" t="n">
         <v>0</v>
       </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -1505,6 +1795,9 @@
       <c r="C97" t="n">
         <v>0</v>
       </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -1516,6 +1809,9 @@
       <c r="C98" t="n">
         <v>0</v>
       </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -1527,6 +1823,9 @@
       <c r="C99" t="n">
         <v>0</v>
       </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -1536,6 +1835,9 @@
         <v>1</v>
       </c>
       <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1549,16 +1851,22 @@
       <c r="C101" t="n">
         <v>1</v>
       </c>
+      <c r="D101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>0</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1571,6 +1879,9 @@
       <c r="C103" t="n">
         <v>1</v>
       </c>
+      <c r="D103" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -1582,6 +1893,9 @@
       <c r="C104" t="n">
         <v>0</v>
       </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -1593,6 +1907,9 @@
       <c r="C105" t="n">
         <v>0</v>
       </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -1604,6 +1921,9 @@
       <c r="C106" t="n">
         <v>0</v>
       </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -1613,6 +1933,9 @@
         <v>1</v>
       </c>
       <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1626,6 +1949,9 @@
       <c r="C108" t="n">
         <v>0</v>
       </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -1637,6 +1963,9 @@
       <c r="C109" t="n">
         <v>0</v>
       </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -1646,6 +1975,9 @@
         <v>1</v>
       </c>
       <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1659,6 +1991,9 @@
       <c r="C111" t="n">
         <v>0</v>
       </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -1670,6 +2005,9 @@
       <c r="C112" t="n">
         <v>0</v>
       </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -1681,16 +2019,22 @@
       <c r="C113" t="n">
         <v>0</v>
       </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>0</v>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1701,6 +2045,9 @@
         <v>1</v>
       </c>
       <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1714,6 +2061,9 @@
       <c r="C116" t="n">
         <v>0</v>
       </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -1725,6 +2075,9 @@
       <c r="C117" t="n">
         <v>0</v>
       </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -1736,6 +2089,9 @@
       <c r="C118" t="n">
         <v>0</v>
       </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -1745,6 +2101,9 @@
         <v>1</v>
       </c>
       <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1758,6 +2117,9 @@
       <c r="C120" t="n">
         <v>0</v>
       </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -1767,6 +2129,9 @@
         <v>1</v>
       </c>
       <c r="C121" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,6 +2143,9 @@
         <v>1</v>
       </c>
       <c r="C122" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1789,6 +2157,9 @@
         <v>1</v>
       </c>
       <c r="C123" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1802,6 +2173,9 @@
       <c r="C124" t="n">
         <v>0</v>
       </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -1811,6 +2185,9 @@
         <v>1</v>
       </c>
       <c r="C125" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1824,6 +2201,9 @@
       <c r="C126" t="n">
         <v>0</v>
       </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -1835,6 +2215,9 @@
       <c r="C127" t="n">
         <v>0</v>
       </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -1844,6 +2227,9 @@
         <v>1</v>
       </c>
       <c r="C128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1857,6 +2243,9 @@
       <c r="C129" t="n">
         <v>1</v>
       </c>
+      <c r="D129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -1868,6 +2257,9 @@
       <c r="C130" t="n">
         <v>0</v>
       </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -1879,6 +2271,9 @@
       <c r="C131" t="n">
         <v>0</v>
       </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -1888,6 +2283,9 @@
         <v>1</v>
       </c>
       <c r="C132" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1896,10 +2294,13 @@
         <v>0</v>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1912,6 +2313,9 @@
       <c r="C134" t="n">
         <v>0</v>
       </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -1921,6 +2325,9 @@
         <v>1</v>
       </c>
       <c r="C135" t="n">
+        <v>0</v>
+      </c>
+      <c r="D135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1932,6 +2339,9 @@
         <v>1</v>
       </c>
       <c r="C136" t="n">
+        <v>0</v>
+      </c>
+      <c r="D136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1943,6 +2353,9 @@
         <v>1</v>
       </c>
       <c r="C137" t="n">
+        <v>0</v>
+      </c>
+      <c r="D137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1956,6 +2369,9 @@
       <c r="C138" t="n">
         <v>0</v>
       </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -1967,6 +2383,9 @@
       <c r="C139" t="n">
         <v>0</v>
       </c>
+      <c r="D139" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -1978,6 +2397,9 @@
       <c r="C140" t="n">
         <v>0</v>
       </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -1989,16 +2411,22 @@
       <c r="C141" t="n">
         <v>0</v>
       </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
         <v>0</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -2009,6 +2437,9 @@
         <v>1</v>
       </c>
       <c r="C143" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2022,6 +2453,9 @@
       <c r="C144" t="n">
         <v>0</v>
       </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -2033,6 +2467,9 @@
       <c r="C145" t="n">
         <v>0</v>
       </c>
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -2044,6 +2481,9 @@
       <c r="C146" t="n">
         <v>0</v>
       </c>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -2055,6 +2495,9 @@
       <c r="C147" t="n">
         <v>0</v>
       </c>
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -2064,6 +2507,9 @@
         <v>1</v>
       </c>
       <c r="C148" t="n">
+        <v>0</v>
+      </c>
+      <c r="D148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2077,15 +2523,21 @@
       <c r="C149" t="n">
         <v>0</v>
       </c>
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
         <v>0</v>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
+        <v>0</v>
+      </c>
+      <c r="D150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2099,6 +2551,9 @@
       <c r="C151" t="n">
         <v>0</v>
       </c>
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -2110,6 +2565,9 @@
       <c r="C152" t="n">
         <v>0</v>
       </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -2121,6 +2579,9 @@
       <c r="C153" t="n">
         <v>0</v>
       </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -2130,6 +2591,9 @@
         <v>1</v>
       </c>
       <c r="C154" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2138,9 +2602,12 @@
         <v>0</v>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2152,6 +2619,9 @@
         <v>1</v>
       </c>
       <c r="C156" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2165,6 +2635,9 @@
       <c r="C157" t="n">
         <v>0</v>
       </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -2176,6 +2649,9 @@
       <c r="C158" t="n">
         <v>0</v>
       </c>
+      <c r="D158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -2187,6 +2663,9 @@
       <c r="C159" t="n">
         <v>0</v>
       </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -2198,6 +2677,9 @@
       <c r="C160" t="n">
         <v>0</v>
       </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -2209,16 +2691,22 @@
       <c r="C161" t="n">
         <v>0</v>
       </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
         <v>1</v>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -2231,6 +2719,9 @@
       <c r="C163" t="n">
         <v>0</v>
       </c>
+      <c r="D163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -2242,6 +2733,9 @@
       <c r="C164" t="n">
         <v>0</v>
       </c>
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -2251,6 +2745,9 @@
         <v>1</v>
       </c>
       <c r="C165" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,6 +2759,9 @@
         <v>1</v>
       </c>
       <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2273,6 +2773,9 @@
         <v>1</v>
       </c>
       <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2286,6 +2789,9 @@
       <c r="C168" t="n">
         <v>0</v>
       </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -2295,6 +2801,9 @@
         <v>1</v>
       </c>
       <c r="C169" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2308,6 +2817,9 @@
       <c r="C170" t="n">
         <v>0</v>
       </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -2319,6 +2831,9 @@
       <c r="C171" t="n">
         <v>0</v>
       </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -2328,6 +2843,9 @@
         <v>1</v>
       </c>
       <c r="C172" t="n">
+        <v>0</v>
+      </c>
+      <c r="D172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2341,16 +2859,22 @@
       <c r="C173" t="n">
         <v>0</v>
       </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
         <v>0</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2363,15 +2887,21 @@
       <c r="C175" t="n">
         <v>0</v>
       </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
         <v>1</v>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2383,7 +2913,10 @@
         <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -2396,6 +2929,9 @@
       <c r="C178" t="n">
         <v>0</v>
       </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -2407,6 +2943,9 @@
       <c r="C179" t="n">
         <v>0</v>
       </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -2418,6 +2957,9 @@
       <c r="C180" t="n">
         <v>0</v>
       </c>
+      <c r="D180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -2429,6 +2971,9 @@
       <c r="C181" t="n">
         <v>0</v>
       </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -2440,6 +2985,9 @@
       <c r="C182" t="n">
         <v>0</v>
       </c>
+      <c r="D182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -2449,6 +2997,9 @@
         <v>1</v>
       </c>
       <c r="C183" t="n">
+        <v>0</v>
+      </c>
+      <c r="D183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2460,6 +3011,9 @@
         <v>1</v>
       </c>
       <c r="C184" t="n">
+        <v>0</v>
+      </c>
+      <c r="D184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2471,6 +3025,9 @@
         <v>1</v>
       </c>
       <c r="C185" t="n">
+        <v>0</v>
+      </c>
+      <c r="D185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2482,6 +3039,9 @@
         <v>1</v>
       </c>
       <c r="C186" t="n">
+        <v>0</v>
+      </c>
+      <c r="D186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2493,6 +3053,9 @@
         <v>1</v>
       </c>
       <c r="C187" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2504,6 +3067,9 @@
         <v>1</v>
       </c>
       <c r="C188" t="n">
+        <v>0</v>
+      </c>
+      <c r="D188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2517,15 +3083,21 @@
       <c r="C189" t="n">
         <v>0</v>
       </c>
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
         <v>1</v>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2537,6 +3109,9 @@
         <v>1</v>
       </c>
       <c r="C191" t="n">
+        <v>0</v>
+      </c>
+      <c r="D191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,6 +3123,9 @@
         <v>1</v>
       </c>
       <c r="C192" t="n">
+        <v>0</v>
+      </c>
+      <c r="D192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2559,6 +3137,9 @@
         <v>1</v>
       </c>
       <c r="C193" t="n">
+        <v>0</v>
+      </c>
+      <c r="D193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2572,6 +3153,9 @@
       <c r="C194" t="n">
         <v>0</v>
       </c>
+      <c r="D194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -2583,6 +3167,9 @@
       <c r="C195" t="n">
         <v>0</v>
       </c>
+      <c r="D195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -2594,15 +3181,21 @@
       <c r="C196" t="n">
         <v>0</v>
       </c>
+      <c r="D196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
         <v>1</v>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2614,6 +3207,9 @@
         <v>1</v>
       </c>
       <c r="C198" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2627,6 +3223,9 @@
       <c r="C199" t="n">
         <v>0</v>
       </c>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -2638,6 +3237,9 @@
       <c r="C200" t="n">
         <v>0</v>
       </c>
+      <c r="D200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -2649,6 +3251,9 @@
       <c r="C201" t="n">
         <v>0</v>
       </c>
+      <c r="D201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -2660,6 +3265,9 @@
       <c r="C202" t="n">
         <v>0</v>
       </c>
+      <c r="D202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -2669,6 +3277,9 @@
         <v>1</v>
       </c>
       <c r="C203" t="n">
+        <v>0</v>
+      </c>
+      <c r="D203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2682,6 +3293,9 @@
       <c r="C204" t="n">
         <v>0</v>
       </c>
+      <c r="D204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -2693,6 +3307,9 @@
       <c r="C205" t="n">
         <v>0</v>
       </c>
+      <c r="D205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -2704,6 +3321,9 @@
       <c r="C206" t="n">
         <v>0</v>
       </c>
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -2715,6 +3335,9 @@
       <c r="C207" t="n">
         <v>0</v>
       </c>
+      <c r="D207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -2726,6 +3349,9 @@
       <c r="C208" t="n">
         <v>0</v>
       </c>
+      <c r="D208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -2737,6 +3363,9 @@
       <c r="C209" t="n">
         <v>0</v>
       </c>
+      <c r="D209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -2748,6 +3377,9 @@
       <c r="C210" t="n">
         <v>0</v>
       </c>
+      <c r="D210" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -2757,6 +3389,9 @@
         <v>1</v>
       </c>
       <c r="C211" t="n">
+        <v>0</v>
+      </c>
+      <c r="D211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2770,6 +3405,9 @@
       <c r="C212" t="n">
         <v>0</v>
       </c>
+      <c r="D212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -2781,15 +3419,21 @@
       <c r="C213" t="n">
         <v>0</v>
       </c>
+      <c r="D213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
         <v>1</v>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C214" t="n">
+        <v>0</v>
+      </c>
+      <c r="D214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2803,6 +3447,9 @@
       <c r="C215" t="n">
         <v>0</v>
       </c>
+      <c r="D215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -2814,6 +3461,9 @@
       <c r="C216" t="n">
         <v>0</v>
       </c>
+      <c r="D216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -2825,6 +3475,9 @@
       <c r="C217" t="n">
         <v>0</v>
       </c>
+      <c r="D217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -2836,6 +3489,9 @@
       <c r="C218" t="n">
         <v>0</v>
       </c>
+      <c r="D218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -2847,6 +3503,9 @@
       <c r="C219" t="n">
         <v>0</v>
       </c>
+      <c r="D219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -2858,6 +3517,9 @@
       <c r="C220" t="n">
         <v>0</v>
       </c>
+      <c r="D220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -2867,6 +3529,9 @@
         <v>1</v>
       </c>
       <c r="C221" t="n">
+        <v>0</v>
+      </c>
+      <c r="D221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2880,6 +3545,9 @@
       <c r="C222" t="n">
         <v>0</v>
       </c>
+      <c r="D222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -2891,6 +3559,9 @@
       <c r="C223" t="n">
         <v>0</v>
       </c>
+      <c r="D223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -2902,6 +3573,9 @@
       <c r="C224" t="n">
         <v>0</v>
       </c>
+      <c r="D224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -2913,6 +3587,9 @@
       <c r="C225" t="n">
         <v>0</v>
       </c>
+      <c r="D225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -2924,6 +3601,9 @@
       <c r="C226" t="n">
         <v>0</v>
       </c>
+      <c r="D226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -2935,6 +3615,9 @@
       <c r="C227" t="n">
         <v>0</v>
       </c>
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -2944,6 +3627,9 @@
         <v>1</v>
       </c>
       <c r="C228" t="n">
+        <v>0</v>
+      </c>
+      <c r="D228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2957,6 +3643,9 @@
       <c r="C229" t="n">
         <v>0</v>
       </c>
+      <c r="D229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -2968,6 +3657,9 @@
       <c r="C230" t="n">
         <v>0</v>
       </c>
+      <c r="D230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -2979,6 +3671,9 @@
       <c r="C231" t="n">
         <v>0</v>
       </c>
+      <c r="D231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -2990,6 +3685,9 @@
       <c r="C232" t="n">
         <v>0</v>
       </c>
+      <c r="D232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -2999,6 +3697,9 @@
         <v>1</v>
       </c>
       <c r="C233" t="n">
+        <v>0</v>
+      </c>
+      <c r="D233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3010,6 +3711,9 @@
         <v>1</v>
       </c>
       <c r="C234" t="n">
+        <v>0</v>
+      </c>
+      <c r="D234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3023,6 +3727,9 @@
       <c r="C235" t="n">
         <v>0</v>
       </c>
+      <c r="D235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -3034,6 +3741,9 @@
       <c r="C236" t="n">
         <v>0</v>
       </c>
+      <c r="D236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -3043,6 +3753,9 @@
         <v>1</v>
       </c>
       <c r="C237" t="n">
+        <v>0</v>
+      </c>
+      <c r="D237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3056,6 +3769,9 @@
       <c r="C238" t="n">
         <v>0</v>
       </c>
+      <c r="D238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -3067,6 +3783,9 @@
       <c r="C239" t="n">
         <v>0</v>
       </c>
+      <c r="D239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -3076,6 +3795,9 @@
         <v>1</v>
       </c>
       <c r="C240" t="n">
+        <v>0</v>
+      </c>
+      <c r="D240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3089,6 +3811,9 @@
       <c r="C241" t="n">
         <v>0</v>
       </c>
+      <c r="D241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -3100,6 +3825,9 @@
       <c r="C242" t="n">
         <v>0</v>
       </c>
+      <c r="D242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -3109,6 +3837,9 @@
         <v>1</v>
       </c>
       <c r="C243" t="n">
+        <v>0</v>
+      </c>
+      <c r="D243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3122,6 +3853,9 @@
       <c r="C244" t="n">
         <v>0</v>
       </c>
+      <c r="D244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -3133,6 +3867,9 @@
       <c r="C245" t="n">
         <v>1</v>
       </c>
+      <c r="D245" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -3144,6 +3881,9 @@
       <c r="C246" t="n">
         <v>0</v>
       </c>
+      <c r="D246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -3153,7 +3893,10 @@
         <v>1</v>
       </c>
       <c r="C247" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -3164,6 +3907,9 @@
         <v>1</v>
       </c>
       <c r="C248" t="n">
+        <v>0</v>
+      </c>
+      <c r="D248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3177,6 +3923,9 @@
       <c r="C249" t="n">
         <v>0</v>
       </c>
+      <c r="D249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -3188,6 +3937,9 @@
       <c r="C250" t="n">
         <v>0</v>
       </c>
+      <c r="D250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -3199,15 +3951,21 @@
       <c r="C251" t="n">
         <v>0</v>
       </c>
+      <c r="D251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
         <v>0</v>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C252" t="n">
+        <v>0</v>
+      </c>
+      <c r="D252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3221,6 +3979,9 @@
       <c r="C253" t="n">
         <v>0</v>
       </c>
+      <c r="D253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -3230,6 +3991,9 @@
         <v>1</v>
       </c>
       <c r="C254" t="n">
+        <v>0</v>
+      </c>
+      <c r="D254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3243,6 +4007,9 @@
       <c r="C255" t="n">
         <v>0</v>
       </c>
+      <c r="D255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -3254,6 +4021,9 @@
       <c r="C256" t="n">
         <v>0</v>
       </c>
+      <c r="D256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -3265,6 +4035,9 @@
       <c r="C257" t="n">
         <v>0</v>
       </c>
+      <c r="D257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -3276,6 +4049,9 @@
       <c r="C258" t="n">
         <v>0</v>
       </c>
+      <c r="D258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -3287,6 +4063,9 @@
       <c r="C259" t="n">
         <v>0</v>
       </c>
+      <c r="D259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -3296,6 +4075,9 @@
         <v>1</v>
       </c>
       <c r="C260" t="n">
+        <v>0</v>
+      </c>
+      <c r="D260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3307,6 +4089,9 @@
         <v>1</v>
       </c>
       <c r="C261" t="n">
+        <v>0</v>
+      </c>
+      <c r="D261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3320,6 +4105,9 @@
       <c r="C262" t="n">
         <v>0</v>
       </c>
+      <c r="D262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -3329,6 +4117,9 @@
         <v>1</v>
       </c>
       <c r="C263" t="n">
+        <v>0</v>
+      </c>
+      <c r="D263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3342,6 +4133,9 @@
       <c r="C264" t="n">
         <v>0</v>
       </c>
+      <c r="D264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -3353,6 +4147,9 @@
       <c r="C265" t="n">
         <v>0</v>
       </c>
+      <c r="D265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -3364,6 +4161,9 @@
       <c r="C266" t="n">
         <v>0</v>
       </c>
+      <c r="D266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -3375,6 +4175,9 @@
       <c r="C267" t="n">
         <v>0</v>
       </c>
+      <c r="D267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -3386,6 +4189,9 @@
       <c r="C268" t="n">
         <v>0</v>
       </c>
+      <c r="D268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -3395,6 +4201,9 @@
         <v>1</v>
       </c>
       <c r="C269" t="n">
+        <v>0</v>
+      </c>
+      <c r="D269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3403,10 +4212,13 @@
         <v>1</v>
       </c>
       <c r="B270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C270" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -3419,6 +4231,9 @@
       <c r="C271" t="n">
         <v>1</v>
       </c>
+      <c r="D271" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -3428,6 +4243,9 @@
         <v>1</v>
       </c>
       <c r="C272" t="n">
+        <v>0</v>
+      </c>
+      <c r="D272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3441,6 +4259,9 @@
       <c r="C273" t="n">
         <v>0</v>
       </c>
+      <c r="D273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -3452,6 +4273,9 @@
       <c r="C274" t="n">
         <v>0</v>
       </c>
+      <c r="D274" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -3463,6 +4287,9 @@
       <c r="C275" t="n">
         <v>0</v>
       </c>
+      <c r="D275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -3474,6 +4301,9 @@
       <c r="C276" t="n">
         <v>0</v>
       </c>
+      <c r="D276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -3485,6 +4315,9 @@
       <c r="C277" t="n">
         <v>0</v>
       </c>
+      <c r="D277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -3496,6 +4329,9 @@
       <c r="C278" t="n">
         <v>0</v>
       </c>
+      <c r="D278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -3507,6 +4343,9 @@
       <c r="C279" t="n">
         <v>1</v>
       </c>
+      <c r="D279" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -3518,6 +4357,9 @@
       <c r="C280" t="n">
         <v>0</v>
       </c>
+      <c r="D280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -3527,6 +4369,9 @@
         <v>1</v>
       </c>
       <c r="C281" t="n">
+        <v>0</v>
+      </c>
+      <c r="D281" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3538,6 +4383,9 @@
         <v>1</v>
       </c>
       <c r="C282" t="n">
+        <v>0</v>
+      </c>
+      <c r="D282" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3551,6 +4399,9 @@
       <c r="C283" t="n">
         <v>0</v>
       </c>
+      <c r="D283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -3562,6 +4413,9 @@
       <c r="C284" t="n">
         <v>0</v>
       </c>
+      <c r="D284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -3573,6 +4427,9 @@
       <c r="C285" t="n">
         <v>0</v>
       </c>
+      <c r="D285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -3584,6 +4441,9 @@
       <c r="C286" t="n">
         <v>0</v>
       </c>
+      <c r="D286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -3595,6 +4455,9 @@
       <c r="C287" t="n">
         <v>0</v>
       </c>
+      <c r="D287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -3606,6 +4469,9 @@
       <c r="C288" t="n">
         <v>0</v>
       </c>
+      <c r="D288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -3615,6 +4481,9 @@
         <v>1</v>
       </c>
       <c r="C289" t="n">
+        <v>0</v>
+      </c>
+      <c r="D289" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3628,6 +4497,9 @@
       <c r="C290" t="n">
         <v>0</v>
       </c>
+      <c r="D290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -3639,16 +4511,22 @@
       <c r="C291" t="n">
         <v>0</v>
       </c>
+      <c r="D291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
         <v>0</v>
       </c>
       <c r="B292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
+      </c>
+      <c r="D292" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -3661,6 +4539,9 @@
       <c r="C293" t="n">
         <v>0</v>
       </c>
+      <c r="D293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -3672,6 +4553,9 @@
       <c r="C294" t="n">
         <v>0</v>
       </c>
+      <c r="D294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -3683,6 +4567,9 @@
       <c r="C295" t="n">
         <v>0</v>
       </c>
+      <c r="D295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -3692,6 +4579,9 @@
         <v>1</v>
       </c>
       <c r="C296" t="n">
+        <v>0</v>
+      </c>
+      <c r="D296" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3705,6 +4595,9 @@
       <c r="C297" t="n">
         <v>0</v>
       </c>
+      <c r="D297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -3716,6 +4609,9 @@
       <c r="C298" t="n">
         <v>0</v>
       </c>
+      <c r="D298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -3727,6 +4623,9 @@
       <c r="C299" t="n">
         <v>0</v>
       </c>
+      <c r="D299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -3738,6 +4637,9 @@
       <c r="C300" t="n">
         <v>0</v>
       </c>
+      <c r="D300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -3747,6 +4649,9 @@
         <v>1</v>
       </c>
       <c r="C301" t="n">
+        <v>0</v>
+      </c>
+      <c r="D301" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3760,6 +4665,9 @@
       <c r="C302" t="n">
         <v>0</v>
       </c>
+      <c r="D302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -3771,6 +4679,9 @@
       <c r="C303" t="n">
         <v>0</v>
       </c>
+      <c r="D303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -3780,6 +4691,9 @@
         <v>1</v>
       </c>
       <c r="C304" t="n">
+        <v>0</v>
+      </c>
+      <c r="D304" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3791,6 +4705,9 @@
         <v>1</v>
       </c>
       <c r="C305" t="n">
+        <v>0</v>
+      </c>
+      <c r="D305" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3804,6 +4721,9 @@
       <c r="C306" t="n">
         <v>0</v>
       </c>
+      <c r="D306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -3815,6 +4735,9 @@
       <c r="C307" t="n">
         <v>0</v>
       </c>
+      <c r="D307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -3826,6 +4749,9 @@
       <c r="C308" t="n">
         <v>0</v>
       </c>
+      <c r="D308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -3837,6 +4763,9 @@
       <c r="C309" t="n">
         <v>0</v>
       </c>
+      <c r="D309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -3848,6 +4777,9 @@
       <c r="C310" t="n">
         <v>0</v>
       </c>
+      <c r="D310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -3857,6 +4789,9 @@
         <v>1</v>
       </c>
       <c r="C311" t="n">
+        <v>0</v>
+      </c>
+      <c r="D311" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3870,6 +4805,9 @@
       <c r="C312" t="n">
         <v>1</v>
       </c>
+      <c r="D312" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -3879,6 +4817,9 @@
         <v>1</v>
       </c>
       <c r="C313" t="n">
+        <v>0</v>
+      </c>
+      <c r="D313" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3892,6 +4833,9 @@
       <c r="C314" t="n">
         <v>0</v>
       </c>
+      <c r="D314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -3903,6 +4847,9 @@
       <c r="C315" t="n">
         <v>0</v>
       </c>
+      <c r="D315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -3914,6 +4861,9 @@
       <c r="C316" t="n">
         <v>0</v>
       </c>
+      <c r="D316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -3923,6 +4873,9 @@
         <v>1</v>
       </c>
       <c r="C317" t="n">
+        <v>0</v>
+      </c>
+      <c r="D317" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,6 +4887,9 @@
         <v>1</v>
       </c>
       <c r="C318" t="n">
+        <v>0</v>
+      </c>
+      <c r="D318" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3942,9 +4898,12 @@
         <v>0</v>
       </c>
       <c r="B319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C319" t="n">
+        <v>0</v>
+      </c>
+      <c r="D319" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3958,6 +4917,9 @@
       <c r="C320" t="n">
         <v>0</v>
       </c>
+      <c r="D320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -3969,6 +4931,9 @@
       <c r="C321" t="n">
         <v>0</v>
       </c>
+      <c r="D321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -3980,6 +4945,9 @@
       <c r="C322" t="n">
         <v>0</v>
       </c>
+      <c r="D322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -3991,16 +4959,22 @@
       <c r="C323" t="n">
         <v>0</v>
       </c>
+      <c r="D323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
         <v>0</v>
       </c>
       <c r="B324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
+      </c>
+      <c r="D324" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -4011,6 +4985,9 @@
         <v>1</v>
       </c>
       <c r="C325" t="n">
+        <v>0</v>
+      </c>
+      <c r="D325" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4024,6 +5001,9 @@
       <c r="C326" t="n">
         <v>0</v>
       </c>
+      <c r="D326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -4035,6 +5015,9 @@
       <c r="C327" t="n">
         <v>0</v>
       </c>
+      <c r="D327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -4046,6 +5029,9 @@
       <c r="C328" t="n">
         <v>1</v>
       </c>
+      <c r="D328" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -4057,6 +5043,9 @@
       <c r="C329" t="n">
         <v>0</v>
       </c>
+      <c r="D329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -4068,6 +5057,9 @@
       <c r="C330" t="n">
         <v>0</v>
       </c>
+      <c r="D330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -4077,6 +5069,9 @@
         <v>1</v>
       </c>
       <c r="C331" t="n">
+        <v>0</v>
+      </c>
+      <c r="D331" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,6 +5083,9 @@
         <v>1</v>
       </c>
       <c r="C332" t="n">
+        <v>0</v>
+      </c>
+      <c r="D332" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4101,6 +5099,9 @@
       <c r="C333" t="n">
         <v>0</v>
       </c>
+      <c r="D333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -4112,6 +5113,9 @@
       <c r="C334" t="n">
         <v>0</v>
       </c>
+      <c r="D334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -4123,15 +5127,21 @@
       <c r="C335" t="n">
         <v>0</v>
       </c>
+      <c r="D335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
         <v>1</v>
       </c>
       <c r="B336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C336" t="n">
+        <v>0</v>
+      </c>
+      <c r="D336" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4143,6 +5153,9 @@
         <v>1</v>
       </c>
       <c r="C337" t="n">
+        <v>0</v>
+      </c>
+      <c r="D337" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4156,6 +5169,9 @@
       <c r="C338" t="n">
         <v>0</v>
       </c>
+      <c r="D338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -4167,6 +5183,9 @@
       <c r="C339" t="n">
         <v>0</v>
       </c>
+      <c r="D339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -4176,6 +5195,9 @@
         <v>1</v>
       </c>
       <c r="C340" t="n">
+        <v>0</v>
+      </c>
+      <c r="D340" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4187,6 +5209,9 @@
         <v>1</v>
       </c>
       <c r="C341" t="n">
+        <v>0</v>
+      </c>
+      <c r="D341" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,6 +5225,9 @@
       <c r="C342" t="n">
         <v>0</v>
       </c>
+      <c r="D342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -4209,6 +5237,9 @@
         <v>1</v>
       </c>
       <c r="C343" t="n">
+        <v>0</v>
+      </c>
+      <c r="D343" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,6 +5253,9 @@
       <c r="C344" t="n">
         <v>0</v>
       </c>
+      <c r="D344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -4233,6 +5267,9 @@
       <c r="C345" t="n">
         <v>0</v>
       </c>
+      <c r="D345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -4244,6 +5281,9 @@
       <c r="C346" t="n">
         <v>1</v>
       </c>
+      <c r="D346" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -4255,6 +5295,9 @@
       <c r="C347" t="n">
         <v>0</v>
       </c>
+      <c r="D347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -4266,6 +5309,9 @@
       <c r="C348" t="n">
         <v>0</v>
       </c>
+      <c r="D348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -4275,6 +5321,9 @@
         <v>1</v>
       </c>
       <c r="C349" t="n">
+        <v>0</v>
+      </c>
+      <c r="D349" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4288,6 +5337,9 @@
       <c r="C350" t="n">
         <v>0</v>
       </c>
+      <c r="D350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -4299,6 +5351,9 @@
       <c r="C351" t="n">
         <v>0</v>
       </c>
+      <c r="D351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -4310,6 +5365,9 @@
       <c r="C352" t="n">
         <v>0</v>
       </c>
+      <c r="D352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -4319,6 +5377,9 @@
         <v>1</v>
       </c>
       <c r="C353" t="n">
+        <v>0</v>
+      </c>
+      <c r="D353" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4330,6 +5391,9 @@
         <v>1</v>
       </c>
       <c r="C354" t="n">
+        <v>0</v>
+      </c>
+      <c r="D354" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4343,6 +5407,9 @@
       <c r="C355" t="n">
         <v>0</v>
       </c>
+      <c r="D355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -4354,6 +5421,9 @@
       <c r="C356" t="n">
         <v>0</v>
       </c>
+      <c r="D356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -4365,6 +5435,9 @@
       <c r="C357" t="n">
         <v>0</v>
       </c>
+      <c r="D357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -4376,6 +5449,9 @@
       <c r="C358" t="n">
         <v>0</v>
       </c>
+      <c r="D358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -4385,6 +5461,9 @@
         <v>1</v>
       </c>
       <c r="C359" t="n">
+        <v>0</v>
+      </c>
+      <c r="D359" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4398,6 +5477,9 @@
       <c r="C360" t="n">
         <v>0</v>
       </c>
+      <c r="D360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -4409,6 +5491,9 @@
       <c r="C361" t="n">
         <v>0</v>
       </c>
+      <c r="D361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -4418,6 +5503,9 @@
         <v>1</v>
       </c>
       <c r="C362" t="n">
+        <v>0</v>
+      </c>
+      <c r="D362" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4429,6 +5517,9 @@
         <v>1</v>
       </c>
       <c r="C363" t="n">
+        <v>0</v>
+      </c>
+      <c r="D363" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4442,6 +5533,9 @@
       <c r="C364" t="n">
         <v>0</v>
       </c>
+      <c r="D364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -4453,6 +5547,9 @@
       <c r="C365" t="n">
         <v>0</v>
       </c>
+      <c r="D365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -4462,6 +5559,9 @@
         <v>1</v>
       </c>
       <c r="C366" t="n">
+        <v>0</v>
+      </c>
+      <c r="D366" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4475,6 +5575,9 @@
       <c r="C367" t="n">
         <v>0</v>
       </c>
+      <c r="D367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -4486,6 +5589,9 @@
       <c r="C368" t="n">
         <v>1</v>
       </c>
+      <c r="D368" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -4495,6 +5601,9 @@
         <v>1</v>
       </c>
       <c r="C369" t="n">
+        <v>0</v>
+      </c>
+      <c r="D369" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,6 +5617,9 @@
       <c r="C370" t="n">
         <v>0</v>
       </c>
+      <c r="D370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -4519,6 +5631,9 @@
       <c r="C371" t="n">
         <v>0</v>
       </c>
+      <c r="D371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -4530,6 +5645,9 @@
       <c r="C372" t="n">
         <v>1</v>
       </c>
+      <c r="D372" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -4541,6 +5659,9 @@
       <c r="C373" t="n">
         <v>0</v>
       </c>
+      <c r="D373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -4550,6 +5671,9 @@
         <v>1</v>
       </c>
       <c r="C374" t="n">
+        <v>0</v>
+      </c>
+      <c r="D374" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4563,6 +5687,9 @@
       <c r="C375" t="n">
         <v>0</v>
       </c>
+      <c r="D375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -4574,6 +5701,9 @@
       <c r="C376" t="n">
         <v>0</v>
       </c>
+      <c r="D376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -4585,6 +5715,9 @@
       <c r="C377" t="n">
         <v>0</v>
       </c>
+      <c r="D377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -4594,6 +5727,9 @@
         <v>1</v>
       </c>
       <c r="C378" t="n">
+        <v>0</v>
+      </c>
+      <c r="D378" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4607,6 +5743,9 @@
       <c r="C379" t="n">
         <v>0</v>
       </c>
+      <c r="D379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -4616,6 +5755,9 @@
         <v>1</v>
       </c>
       <c r="C380" t="n">
+        <v>0</v>
+      </c>
+      <c r="D380" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4629,6 +5771,9 @@
       <c r="C381" t="n">
         <v>0</v>
       </c>
+      <c r="D381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -4638,6 +5783,9 @@
         <v>1</v>
       </c>
       <c r="C382" t="n">
+        <v>0</v>
+      </c>
+      <c r="D382" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4651,6 +5799,9 @@
       <c r="C383" t="n">
         <v>0</v>
       </c>
+      <c r="D383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -4660,6 +5811,9 @@
         <v>1</v>
       </c>
       <c r="C384" t="n">
+        <v>0</v>
+      </c>
+      <c r="D384" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4671,6 +5825,9 @@
         <v>1</v>
       </c>
       <c r="C385" t="n">
+        <v>0</v>
+      </c>
+      <c r="D385" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4684,6 +5841,9 @@
       <c r="C386" t="n">
         <v>0</v>
       </c>
+      <c r="D386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -4693,6 +5853,9 @@
         <v>1</v>
       </c>
       <c r="C387" t="n">
+        <v>0</v>
+      </c>
+      <c r="D387" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4706,6 +5869,9 @@
       <c r="C388" t="n">
         <v>0</v>
       </c>
+      <c r="D388" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -4717,6 +5883,9 @@
       <c r="C389" t="n">
         <v>0</v>
       </c>
+      <c r="D389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -4726,6 +5895,9 @@
         <v>1</v>
       </c>
       <c r="C390" t="n">
+        <v>0</v>
+      </c>
+      <c r="D390" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4737,6 +5909,9 @@
         <v>1</v>
       </c>
       <c r="C391" t="n">
+        <v>0</v>
+      </c>
+      <c r="D391" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4750,6 +5925,9 @@
       <c r="C392" t="n">
         <v>0</v>
       </c>
+      <c r="D392" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -4759,6 +5937,9 @@
         <v>1</v>
       </c>
       <c r="C393" t="n">
+        <v>0</v>
+      </c>
+      <c r="D393" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4770,6 +5951,9 @@
         <v>1</v>
       </c>
       <c r="C394" t="n">
+        <v>0</v>
+      </c>
+      <c r="D394" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4781,6 +5965,9 @@
         <v>1</v>
       </c>
       <c r="C395" t="n">
+        <v>0</v>
+      </c>
+      <c r="D395" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4794,6 +5981,9 @@
       <c r="C396" t="n">
         <v>1</v>
       </c>
+      <c r="D396" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -4805,6 +5995,9 @@
       <c r="C397" t="n">
         <v>0</v>
       </c>
+      <c r="D397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -4816,6 +6009,9 @@
       <c r="C398" t="n">
         <v>0</v>
       </c>
+      <c r="D398" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -4827,6 +6023,9 @@
       <c r="C399" t="n">
         <v>0</v>
       </c>
+      <c r="D399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -4838,6 +6037,9 @@
       <c r="C400" t="n">
         <v>1</v>
       </c>
+      <c r="D400" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -4849,6 +6051,9 @@
       <c r="C401" t="n">
         <v>0</v>
       </c>
+      <c r="D401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -4860,6 +6065,9 @@
       <c r="C402" t="n">
         <v>0</v>
       </c>
+      <c r="D402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -4871,6 +6079,9 @@
       <c r="C403" t="n">
         <v>0</v>
       </c>
+      <c r="D403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -4882,6 +6093,9 @@
       <c r="C404" t="n">
         <v>0</v>
       </c>
+      <c r="D404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -4893,6 +6107,9 @@
       <c r="C405" t="n">
         <v>0</v>
       </c>
+      <c r="D405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -4904,6 +6121,9 @@
       <c r="C406" t="n">
         <v>0</v>
       </c>
+      <c r="D406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -4915,16 +6135,22 @@
       <c r="C407" t="n">
         <v>1</v>
       </c>
+      <c r="D407" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
         <v>0</v>
       </c>
       <c r="B408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C408" t="n">
         <v>0</v>
+      </c>
+      <c r="D408" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -4937,6 +6163,9 @@
       <c r="C409" t="n">
         <v>0</v>
       </c>
+      <c r="D409" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -4948,6 +6177,9 @@
       <c r="C410" t="n">
         <v>0</v>
       </c>
+      <c r="D410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -4957,6 +6189,9 @@
         <v>1</v>
       </c>
       <c r="C411" t="n">
+        <v>0</v>
+      </c>
+      <c r="D411" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4968,6 +6203,9 @@
         <v>1</v>
       </c>
       <c r="C412" t="n">
+        <v>0</v>
+      </c>
+      <c r="D412" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4981,6 +6219,9 @@
       <c r="C413" t="n">
         <v>0</v>
       </c>
+      <c r="D413" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -4990,6 +6231,9 @@
         <v>1</v>
       </c>
       <c r="C414" t="n">
+        <v>0</v>
+      </c>
+      <c r="D414" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5001,6 +6245,9 @@
         <v>1</v>
       </c>
       <c r="C415" t="n">
+        <v>0</v>
+      </c>
+      <c r="D415" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5014,6 +6261,9 @@
       <c r="C416" t="n">
         <v>0</v>
       </c>
+      <c r="D416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -5025,6 +6275,9 @@
       <c r="C417" t="n">
         <v>1</v>
       </c>
+      <c r="D417" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -5034,6 +6287,9 @@
         <v>1</v>
       </c>
       <c r="C418" t="n">
+        <v>0</v>
+      </c>
+      <c r="D418" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5047,6 +6303,9 @@
       <c r="C419" t="n">
         <v>0</v>
       </c>
+      <c r="D419" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -5056,6 +6315,9 @@
         <v>1</v>
       </c>
       <c r="C420" t="n">
+        <v>0</v>
+      </c>
+      <c r="D420" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5069,6 +6331,9 @@
       <c r="C421" t="n">
         <v>0</v>
       </c>
+      <c r="D421" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -5080,6 +6345,9 @@
       <c r="C422" t="n">
         <v>0</v>
       </c>
+      <c r="D422" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -5091,6 +6359,9 @@
       <c r="C423" t="n">
         <v>0</v>
       </c>
+      <c r="D423" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -5102,6 +6373,9 @@
       <c r="C424" t="n">
         <v>0</v>
       </c>
+      <c r="D424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -5113,6 +6387,9 @@
       <c r="C425" t="n">
         <v>0</v>
       </c>
+      <c r="D425" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -5124,6 +6401,9 @@
       <c r="C426" t="n">
         <v>0</v>
       </c>
+      <c r="D426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -5133,6 +6413,9 @@
         <v>1</v>
       </c>
       <c r="C427" t="n">
+        <v>0</v>
+      </c>
+      <c r="D427" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5146,6 +6429,9 @@
       <c r="C428" t="n">
         <v>0</v>
       </c>
+      <c r="D428" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -5155,6 +6441,9 @@
         <v>1</v>
       </c>
       <c r="C429" t="n">
+        <v>0</v>
+      </c>
+      <c r="D429" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5163,9 +6452,12 @@
         <v>0</v>
       </c>
       <c r="B430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C430" t="n">
+        <v>0</v>
+      </c>
+      <c r="D430" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5179,6 +6471,9 @@
       <c r="C431" t="n">
         <v>0</v>
       </c>
+      <c r="D431" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -5188,6 +6483,9 @@
         <v>1</v>
       </c>
       <c r="C432" t="n">
+        <v>0</v>
+      </c>
+      <c r="D432" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5199,6 +6497,9 @@
         <v>1</v>
       </c>
       <c r="C433" t="n">
+        <v>0</v>
+      </c>
+      <c r="D433" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5210,6 +6511,9 @@
         <v>1</v>
       </c>
       <c r="C434" t="n">
+        <v>0</v>
+      </c>
+      <c r="D434" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5223,6 +6527,9 @@
       <c r="C435" t="n">
         <v>0</v>
       </c>
+      <c r="D435" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -5234,6 +6541,9 @@
       <c r="C436" t="n">
         <v>0</v>
       </c>
+      <c r="D436" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -5243,6 +6553,9 @@
         <v>1</v>
       </c>
       <c r="C437" t="n">
+        <v>0</v>
+      </c>
+      <c r="D437" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5254,6 +6567,9 @@
         <v>1</v>
       </c>
       <c r="C438" t="n">
+        <v>0</v>
+      </c>
+      <c r="D438" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5267,6 +6583,9 @@
       <c r="C439" t="n">
         <v>0</v>
       </c>
+      <c r="D439" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -5276,6 +6595,9 @@
         <v>1</v>
       </c>
       <c r="C440" t="n">
+        <v>0</v>
+      </c>
+      <c r="D440" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5289,6 +6611,9 @@
       <c r="C441" t="n">
         <v>0</v>
       </c>
+      <c r="D441" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -5300,6 +6625,9 @@
       <c r="C442" t="n">
         <v>0</v>
       </c>
+      <c r="D442" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -5309,6 +6637,9 @@
         <v>1</v>
       </c>
       <c r="C443" t="n">
+        <v>0</v>
+      </c>
+      <c r="D443" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5322,6 +6653,9 @@
       <c r="C444" t="n">
         <v>1</v>
       </c>
+      <c r="D444" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -5333,6 +6667,9 @@
       <c r="C445" t="n">
         <v>0</v>
       </c>
+      <c r="D445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -5342,6 +6679,9 @@
         <v>1</v>
       </c>
       <c r="C446" t="n">
+        <v>0</v>
+      </c>
+      <c r="D446" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5355,15 +6695,21 @@
       <c r="C447" t="n">
         <v>0</v>
       </c>
+      <c r="D447" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
         <v>1</v>
       </c>
       <c r="B448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C448" t="n">
+        <v>0</v>
+      </c>
+      <c r="D448" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5377,6 +6723,9 @@
       <c r="C449" t="n">
         <v>0</v>
       </c>
+      <c r="D449" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -5386,6 +6735,9 @@
         <v>1</v>
       </c>
       <c r="C450" t="n">
+        <v>0</v>
+      </c>
+      <c r="D450" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5399,6 +6751,9 @@
       <c r="C451" t="n">
         <v>0</v>
       </c>
+      <c r="D451" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -5410,6 +6765,9 @@
       <c r="C452" t="n">
         <v>0</v>
       </c>
+      <c r="D452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -5419,6 +6777,9 @@
         <v>1</v>
       </c>
       <c r="C453" t="n">
+        <v>0</v>
+      </c>
+      <c r="D453" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5432,6 +6793,9 @@
       <c r="C454" t="n">
         <v>0</v>
       </c>
+      <c r="D454" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -5441,6 +6805,9 @@
         <v>1</v>
       </c>
       <c r="C455" t="n">
+        <v>0</v>
+      </c>
+      <c r="D455" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5454,6 +6821,9 @@
       <c r="C456" t="n">
         <v>0</v>
       </c>
+      <c r="D456" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -5463,6 +6833,9 @@
         <v>1</v>
       </c>
       <c r="C457" t="n">
+        <v>0</v>
+      </c>
+      <c r="D457" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5476,6 +6849,9 @@
       <c r="C458" t="n">
         <v>0</v>
       </c>
+      <c r="D458" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -5487,6 +6863,9 @@
       <c r="C459" t="n">
         <v>1</v>
       </c>
+      <c r="D459" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -5498,6 +6877,9 @@
       <c r="C460" t="n">
         <v>0</v>
       </c>
+      <c r="D460" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -5509,6 +6891,9 @@
       <c r="C461" t="n">
         <v>0</v>
       </c>
+      <c r="D461" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -5520,6 +6905,9 @@
       <c r="C462" t="n">
         <v>0</v>
       </c>
+      <c r="D462" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -5529,6 +6917,9 @@
         <v>1</v>
       </c>
       <c r="C463" t="n">
+        <v>0</v>
+      </c>
+      <c r="D463" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5540,6 +6931,9 @@
         <v>1</v>
       </c>
       <c r="C464" t="n">
+        <v>0</v>
+      </c>
+      <c r="D464" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5551,6 +6945,9 @@
         <v>1</v>
       </c>
       <c r="C465" t="n">
+        <v>0</v>
+      </c>
+      <c r="D465" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5562,6 +6959,9 @@
         <v>1</v>
       </c>
       <c r="C466" t="n">
+        <v>0</v>
+      </c>
+      <c r="D466" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5573,6 +6973,9 @@
         <v>1</v>
       </c>
       <c r="C467" t="n">
+        <v>0</v>
+      </c>
+      <c r="D467" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5586,6 +6989,9 @@
       <c r="C468" t="n">
         <v>0</v>
       </c>
+      <c r="D468" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -5595,6 +7001,9 @@
         <v>1</v>
       </c>
       <c r="C469" t="n">
+        <v>0</v>
+      </c>
+      <c r="D469" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5608,6 +7017,9 @@
       <c r="C470" t="n">
         <v>0</v>
       </c>
+      <c r="D470" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -5617,6 +7029,9 @@
         <v>1</v>
       </c>
       <c r="C471" t="n">
+        <v>0</v>
+      </c>
+      <c r="D471" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,6 +7043,9 @@
         <v>1</v>
       </c>
       <c r="C472" t="n">
+        <v>0</v>
+      </c>
+      <c r="D472" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5641,6 +7059,9 @@
       <c r="C473" t="n">
         <v>0</v>
       </c>
+      <c r="D473" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -5652,6 +7073,9 @@
       <c r="C474" t="n">
         <v>0</v>
       </c>
+      <c r="D474" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -5663,6 +7087,9 @@
       <c r="C475" t="n">
         <v>0</v>
       </c>
+      <c r="D475" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -5674,6 +7101,9 @@
       <c r="C476" t="n">
         <v>0</v>
       </c>
+      <c r="D476" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -5685,6 +7115,9 @@
       <c r="C477" t="n">
         <v>1</v>
       </c>
+      <c r="D477" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -5694,6 +7127,9 @@
         <v>1</v>
       </c>
       <c r="C478" t="n">
+        <v>0</v>
+      </c>
+      <c r="D478" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5707,6 +7143,9 @@
       <c r="C479" t="n">
         <v>0</v>
       </c>
+      <c r="D479" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -5718,6 +7157,9 @@
       <c r="C480" t="n">
         <v>0</v>
       </c>
+      <c r="D480" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -5729,6 +7171,9 @@
       <c r="C481" t="n">
         <v>0</v>
       </c>
+      <c r="D481" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -5738,6 +7183,9 @@
         <v>1</v>
       </c>
       <c r="C482" t="n">
+        <v>0</v>
+      </c>
+      <c r="D482" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5751,6 +7199,9 @@
       <c r="C483" t="n">
         <v>0</v>
       </c>
+      <c r="D483" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -5762,6 +7213,9 @@
       <c r="C484" t="n">
         <v>0</v>
       </c>
+      <c r="D484" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -5771,6 +7225,9 @@
         <v>1</v>
       </c>
       <c r="C485" t="n">
+        <v>0</v>
+      </c>
+      <c r="D485" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5784,6 +7241,9 @@
       <c r="C486" t="n">
         <v>0</v>
       </c>
+      <c r="D486" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -5795,6 +7255,9 @@
       <c r="C487" t="n">
         <v>0</v>
       </c>
+      <c r="D487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -5804,6 +7267,9 @@
         <v>0</v>
       </c>
       <c r="C488" t="n">
+        <v>0</v>
+      </c>
+      <c r="D488" t="n">
         <v>0</v>
       </c>
     </row>

--- a/831MarketingAnalytics/Project/831MarketingProject/output/repayment_predictions.xlsx
+++ b/831MarketingAnalytics/Project/831MarketingProject/output/repayment_predictions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D488"/>
+  <dimension ref="A1:C731"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,24 +449,16 @@
           <t>XGBoost</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>LightGBM</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -477,9 +469,6 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -491,37 +480,28 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -533,9 +513,6 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -547,10 +524,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -561,23 +535,17 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -589,23 +557,17 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -614,54 +576,42 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -673,38 +623,29 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -715,37 +656,28 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -757,37 +689,28 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -799,38 +722,29 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -841,10 +755,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -855,38 +766,29 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -897,9 +799,6 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -911,10 +810,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -925,10 +821,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -939,9 +832,6 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -953,10 +843,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -967,38 +854,29 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1009,9 +887,6 @@
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1023,38 +898,29 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1065,10 +931,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1079,9 +942,6 @@
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1090,83 +950,65 @@
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1177,10 +1019,7 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1191,24 +1030,18 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1216,13 +1049,10 @@
         <v>1</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1235,36 +1065,27 @@
       <c r="C57" t="n">
         <v>1</v>
       </c>
-      <c r="D57" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1275,10 +1096,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1289,79 +1107,61 @@
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1373,9 +1173,6 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1387,10 +1184,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1401,9 +1195,6 @@
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1415,108 +1206,84 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1527,24 +1294,18 @@
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1555,23 +1316,17 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
-      </c>
-      <c r="D81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1583,24 +1338,18 @@
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1611,24 +1360,18 @@
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
-      </c>
-      <c r="D84" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1639,24 +1382,18 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1667,10 +1404,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1681,38 +1415,29 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1723,9 +1448,6 @@
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
-      </c>
-      <c r="D92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1734,13 +1456,10 @@
         <v>1</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1751,10 +1470,7 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -1765,24 +1481,18 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -1793,24 +1503,18 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1821,10 +1525,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1835,9 +1536,6 @@
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
-      </c>
-      <c r="D100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1851,176 +1549,137 @@
       <c r="C101" t="n">
         <v>1</v>
       </c>
-      <c r="D101" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B102" t="n">
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
-      </c>
-      <c r="D102" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
-      </c>
-      <c r="D103" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
-      </c>
-      <c r="D107" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
-      </c>
-      <c r="D110" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -2028,12 +1687,9 @@
         <v>0</v>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
-      </c>
-      <c r="D114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2045,52 +1701,40 @@
         <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
-      </c>
-      <c r="D115" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -2101,24 +1745,18 @@
         <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
-      </c>
-      <c r="D119" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -2129,23 +1767,17 @@
         <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
-      </c>
-      <c r="D121" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
-      </c>
-      <c r="D122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2157,52 +1789,40 @@
         <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
-      </c>
-      <c r="D123" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
-      </c>
-      <c r="D125" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -2213,10 +1833,7 @@
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -2227,9 +1844,6 @@
         <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
-      </c>
-      <c r="D128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2243,22 +1857,16 @@
       <c r="C129" t="n">
         <v>1</v>
       </c>
-      <c r="D129" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -2269,52 +1877,40 @@
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
-      </c>
-      <c r="D132" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B133" t="n">
         <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
-      </c>
-      <c r="D133" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -2325,9 +1921,6 @@
         <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
-      </c>
-      <c r="D135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2339,9 +1932,6 @@
         <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
-      </c>
-      <c r="D136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2353,9 +1943,6 @@
         <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
-      </c>
-      <c r="D137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2367,38 +1954,29 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
-      </c>
-      <c r="D139" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -2409,10 +1987,7 @@
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -2420,12 +1995,9 @@
         <v>0</v>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
-      </c>
-      <c r="D142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,24 +2009,18 @@
         <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
-      </c>
-      <c r="D143" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -2465,10 +2031,7 @@
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -2479,10 +2042,7 @@
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -2493,10 +2053,7 @@
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -2507,24 +2064,18 @@
         <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
-      </c>
-      <c r="D148" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -2532,55 +2083,43 @@
         <v>0</v>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
-      </c>
-      <c r="D153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -2591,108 +2130,84 @@
         <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
-      </c>
-      <c r="D154" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B155" t="n">
         <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
-      </c>
-      <c r="D155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
-      </c>
-      <c r="D156" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
-      </c>
-      <c r="D158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
-      </c>
-      <c r="D159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
-      </c>
-      <c r="D160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
-      </c>
-      <c r="D161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -2700,41 +2215,32 @@
         <v>1</v>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
-      </c>
-      <c r="D162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
-      </c>
-      <c r="D163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2745,9 +2251,6 @@
         <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
-      </c>
-      <c r="D165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2759,9 +2262,6 @@
         <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
-      </c>
-      <c r="D166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2773,52 +2273,40 @@
         <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
-      </c>
-      <c r="D167" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
-      </c>
-      <c r="D168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
-      </c>
-      <c r="D169" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2829,66 +2317,51 @@
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
-      </c>
-      <c r="D172" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
-      </c>
-      <c r="D173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B174" t="n">
         <v>1</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
-      </c>
-      <c r="D174" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
-      </c>
-      <c r="D175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2896,41 +2369,32 @@
         <v>1</v>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
-      </c>
-      <c r="D176" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
-      </c>
-      <c r="D177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
-      </c>
-      <c r="D178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2941,38 +2405,29 @@
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
-      </c>
-      <c r="D179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
-      </c>
-      <c r="D180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
-      </c>
-      <c r="D181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -2983,10 +2438,7 @@
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
-      </c>
-      <c r="D182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2997,9 +2449,6 @@
         <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
-      </c>
-      <c r="D183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3011,37 +2460,28 @@
         <v>1</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
-      </c>
-      <c r="D184" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
-      </c>
-      <c r="D185" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
-      </c>
-      <c r="D186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3053,38 +2493,29 @@
         <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
-      </c>
-      <c r="D187" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
-      </c>
-      <c r="D188" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
-      </c>
-      <c r="D189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -3092,110 +2523,86 @@
         <v>1</v>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
-      </c>
-      <c r="D190" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
-      </c>
-      <c r="D191" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
-      </c>
-      <c r="D192" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
-      </c>
-      <c r="D193" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
-      </c>
-      <c r="D194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
-      </c>
-      <c r="D195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
-      </c>
-      <c r="D196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B197" t="n">
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
-      </c>
-      <c r="D197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3207,24 +2614,18 @@
         <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
-      </c>
-      <c r="D198" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
-      </c>
-      <c r="D199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -3235,24 +2636,18 @@
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
-      </c>
-      <c r="D200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
-      </c>
-      <c r="D201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -3263,10 +2658,7 @@
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
-      </c>
-      <c r="D202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -3277,38 +2669,29 @@
         <v>1</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
-      </c>
-      <c r="D203" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
-      </c>
-      <c r="D204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
-      </c>
-      <c r="D205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -3319,38 +2702,29 @@
         <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
-      </c>
-      <c r="D206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
-      </c>
-      <c r="D207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
-      </c>
-      <c r="D208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -3361,23 +2735,17 @@
         <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
-      </c>
-      <c r="D209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
-      </c>
-      <c r="D210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3389,9 +2757,6 @@
         <v>1</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
-      </c>
-      <c r="D211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3403,24 +2768,18 @@
         <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
-      </c>
-      <c r="D212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
-      </c>
-      <c r="D213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -3428,69 +2787,54 @@
         <v>1</v>
       </c>
       <c r="B214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
-      </c>
-      <c r="D214" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
-      </c>
-      <c r="D215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
-      </c>
-      <c r="D216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
-      </c>
-      <c r="D217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
-      </c>
-      <c r="D218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -3501,52 +2845,40 @@
         <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
-      </c>
-      <c r="D219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
-      </c>
-      <c r="D220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
-      </c>
-      <c r="D221" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
-      </c>
-      <c r="D222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -3557,10 +2889,7 @@
         <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
-      </c>
-      <c r="D223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -3571,52 +2900,40 @@
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
-      </c>
-      <c r="D224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
-      </c>
-      <c r="D225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
-      </c>
-      <c r="D226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
-      </c>
-      <c r="D227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -3627,9 +2944,6 @@
         <v>1</v>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
-      </c>
-      <c r="D228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3641,52 +2955,40 @@
         <v>0</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
-      </c>
-      <c r="D229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
-      </c>
-      <c r="D230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
-      </c>
-      <c r="D231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
-      </c>
-      <c r="D232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -3697,9 +2999,6 @@
         <v>1</v>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
-      </c>
-      <c r="D233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3711,9 +3010,6 @@
         <v>1</v>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
-      </c>
-      <c r="D234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3725,37 +3021,28 @@
         <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
-      </c>
-      <c r="D235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
-      </c>
-      <c r="D236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
-      </c>
-      <c r="D237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3767,10 +3054,7 @@
         <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
-      </c>
-      <c r="D238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -3781,80 +3065,62 @@
         <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
-      </c>
-      <c r="D239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
-      </c>
-      <c r="D240" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
-      </c>
-      <c r="D241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
-      </c>
-      <c r="D242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
-      </c>
-      <c r="D243" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
-      </c>
-      <c r="D244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -3867,9 +3133,6 @@
       <c r="C245" t="n">
         <v>1</v>
       </c>
-      <c r="D245" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -3879,24 +3142,18 @@
         <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>0</v>
-      </c>
-      <c r="D246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
-      </c>
-      <c r="D247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -3907,38 +3164,29 @@
         <v>1</v>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
-      </c>
-      <c r="D248" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
-      </c>
-      <c r="D249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
-      </c>
-      <c r="D250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -3949,10 +3197,7 @@
         <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
-      </c>
-      <c r="D251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -3960,27 +3205,21 @@
         <v>0</v>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
-      </c>
-      <c r="D252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
-      </c>
-      <c r="D253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -3991,9 +3230,6 @@
         <v>1</v>
       </c>
       <c r="C254" t="n">
-        <v>0</v>
-      </c>
-      <c r="D254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4005,66 +3241,51 @@
         <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
-      </c>
-      <c r="D255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
-      </c>
-      <c r="D256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C257" t="n">
-        <v>0</v>
-      </c>
-      <c r="D257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C258" t="n">
-        <v>0</v>
-      </c>
-      <c r="D258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
-      </c>
-      <c r="D259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -4075,9 +3296,6 @@
         <v>1</v>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
-      </c>
-      <c r="D260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4089,24 +3307,18 @@
         <v>1</v>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
-      </c>
-      <c r="D261" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
-      </c>
-      <c r="D262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -4117,66 +3329,51 @@
         <v>1</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
-      </c>
-      <c r="D263" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C264" t="n">
-        <v>0</v>
-      </c>
-      <c r="D264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C265" t="n">
-        <v>0</v>
-      </c>
-      <c r="D265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
-      </c>
-      <c r="D266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
-      </c>
-      <c r="D267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -4187,23 +3384,17 @@
         <v>0</v>
       </c>
       <c r="C268" t="n">
-        <v>0</v>
-      </c>
-      <c r="D268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C269" t="n">
-        <v>0</v>
-      </c>
-      <c r="D269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4212,26 +3403,20 @@
         <v>1</v>
       </c>
       <c r="B270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C270" t="n">
-        <v>0</v>
-      </c>
-      <c r="D270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>1</v>
-      </c>
-      <c r="D271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4243,37 +3428,28 @@
         <v>1</v>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
-      </c>
-      <c r="D272" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C273" t="n">
-        <v>0</v>
-      </c>
-      <c r="D273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
-      </c>
-      <c r="D274" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4285,52 +3461,40 @@
         <v>0</v>
       </c>
       <c r="C275" t="n">
-        <v>0</v>
-      </c>
-      <c r="D275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C276" t="n">
-        <v>0</v>
-      </c>
-      <c r="D276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C277" t="n">
-        <v>0</v>
-      </c>
-      <c r="D277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C278" t="n">
-        <v>0</v>
-      </c>
-      <c r="D278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -4343,232 +3507,181 @@
       <c r="C279" t="n">
         <v>1</v>
       </c>
-      <c r="D279" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C280" t="n">
-        <v>0</v>
-      </c>
-      <c r="D280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>0</v>
-      </c>
-      <c r="D281" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
-      </c>
-      <c r="D282" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
-      </c>
-      <c r="D283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
-      </c>
-      <c r="D284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
-      </c>
-      <c r="D285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C286" t="n">
-        <v>0</v>
-      </c>
-      <c r="D286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
-      </c>
-      <c r="D287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
-      </c>
-      <c r="D288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C289" t="n">
-        <v>0</v>
-      </c>
-      <c r="D289" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C290" t="n">
-        <v>0</v>
-      </c>
-      <c r="D290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C291" t="n">
-        <v>0</v>
-      </c>
-      <c r="D291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B292" t="n">
         <v>1</v>
       </c>
       <c r="C292" t="n">
-        <v>0</v>
-      </c>
-      <c r="D292" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C293" t="n">
-        <v>0</v>
-      </c>
-      <c r="D293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C294" t="n">
-        <v>0</v>
-      </c>
-      <c r="D294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C295" t="n">
-        <v>0</v>
-      </c>
-      <c r="D295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -4579,24 +3692,18 @@
         <v>1</v>
       </c>
       <c r="C296" t="n">
-        <v>0</v>
-      </c>
-      <c r="D296" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C297" t="n">
-        <v>0</v>
-      </c>
-      <c r="D297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -4607,10 +3714,7 @@
         <v>0</v>
       </c>
       <c r="C298" t="n">
-        <v>0</v>
-      </c>
-      <c r="D298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -4621,10 +3725,7 @@
         <v>0</v>
       </c>
       <c r="C299" t="n">
-        <v>0</v>
-      </c>
-      <c r="D299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -4635,10 +3736,7 @@
         <v>0</v>
       </c>
       <c r="C300" t="n">
-        <v>0</v>
-      </c>
-      <c r="D300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -4649,24 +3747,18 @@
         <v>1</v>
       </c>
       <c r="C301" t="n">
-        <v>0</v>
-      </c>
-      <c r="D301" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C302" t="n">
-        <v>0</v>
-      </c>
-      <c r="D302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -4677,10 +3769,7 @@
         <v>0</v>
       </c>
       <c r="C303" t="n">
-        <v>0</v>
-      </c>
-      <c r="D303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -4691,9 +3780,6 @@
         <v>1</v>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
-      </c>
-      <c r="D304" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4705,38 +3791,29 @@
         <v>1</v>
       </c>
       <c r="C305" t="n">
-        <v>0</v>
-      </c>
-      <c r="D305" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C306" t="n">
-        <v>0</v>
-      </c>
-      <c r="D306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C307" t="n">
-        <v>0</v>
-      </c>
-      <c r="D307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -4747,10 +3824,7 @@
         <v>0</v>
       </c>
       <c r="C308" t="n">
-        <v>0</v>
-      </c>
-      <c r="D308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -4761,24 +3835,18 @@
         <v>0</v>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
-      </c>
-      <c r="D309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C310" t="n">
-        <v>0</v>
-      </c>
-      <c r="D310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -4789,9 +3857,6 @@
         <v>1</v>
       </c>
       <c r="C311" t="n">
-        <v>0</v>
-      </c>
-      <c r="D311" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4805,9 +3870,6 @@
       <c r="C312" t="n">
         <v>1</v>
       </c>
-      <c r="D312" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -4817,9 +3879,6 @@
         <v>1</v>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
-      </c>
-      <c r="D313" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4831,10 +3890,7 @@
         <v>0</v>
       </c>
       <c r="C314" t="n">
-        <v>0</v>
-      </c>
-      <c r="D314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -4845,80 +3901,62 @@
         <v>0</v>
       </c>
       <c r="C315" t="n">
-        <v>0</v>
-      </c>
-      <c r="D315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C316" t="n">
-        <v>0</v>
-      </c>
-      <c r="D316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C317" t="n">
-        <v>0</v>
-      </c>
-      <c r="D317" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C318" t="n">
-        <v>0</v>
-      </c>
-      <c r="D318" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B319" t="n">
         <v>1</v>
       </c>
       <c r="C319" t="n">
-        <v>0</v>
-      </c>
-      <c r="D319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C320" t="n">
-        <v>0</v>
-      </c>
-      <c r="D320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -4929,38 +3967,29 @@
         <v>0</v>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
-      </c>
-      <c r="D321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C322" t="n">
-        <v>0</v>
-      </c>
-      <c r="D322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C323" t="n">
-        <v>0</v>
-      </c>
-      <c r="D323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -4968,12 +3997,9 @@
         <v>0</v>
       </c>
       <c r="B324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C324" t="n">
-        <v>0</v>
-      </c>
-      <c r="D324" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4985,38 +4011,29 @@
         <v>1</v>
       </c>
       <c r="C325" t="n">
-        <v>0</v>
-      </c>
-      <c r="D325" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C326" t="n">
-        <v>0</v>
-      </c>
-      <c r="D326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C327" t="n">
-        <v>0</v>
-      </c>
-      <c r="D327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -5029,22 +4046,16 @@
       <c r="C328" t="n">
         <v>1</v>
       </c>
-      <c r="D328" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C329" t="n">
-        <v>0</v>
-      </c>
-      <c r="D329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -5055,10 +4066,7 @@
         <v>0</v>
       </c>
       <c r="C330" t="n">
-        <v>0</v>
-      </c>
-      <c r="D330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -5069,9 +4077,6 @@
         <v>1</v>
       </c>
       <c r="C331" t="n">
-        <v>0</v>
-      </c>
-      <c r="D331" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5083,38 +4088,29 @@
         <v>1</v>
       </c>
       <c r="C332" t="n">
-        <v>0</v>
-      </c>
-      <c r="D332" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C333" t="n">
-        <v>0</v>
-      </c>
-      <c r="D333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C334" t="n">
-        <v>0</v>
-      </c>
-      <c r="D334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -5125,23 +4121,17 @@
         <v>0</v>
       </c>
       <c r="C335" t="n">
-        <v>0</v>
-      </c>
-      <c r="D335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B336" t="n">
         <v>0</v>
       </c>
       <c r="C336" t="n">
-        <v>0</v>
-      </c>
-      <c r="D336" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5153,9 +4143,6 @@
         <v>1</v>
       </c>
       <c r="C337" t="n">
-        <v>0</v>
-      </c>
-      <c r="D337" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5167,10 +4154,7 @@
         <v>0</v>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
-      </c>
-      <c r="D338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -5181,10 +4165,7 @@
         <v>0</v>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
-      </c>
-      <c r="D339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -5195,9 +4176,6 @@
         <v>1</v>
       </c>
       <c r="C340" t="n">
-        <v>0</v>
-      </c>
-      <c r="D340" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5209,24 +4187,18 @@
         <v>1</v>
       </c>
       <c r="C341" t="n">
-        <v>0</v>
-      </c>
-      <c r="D341" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C342" t="n">
-        <v>0</v>
-      </c>
-      <c r="D342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -5237,38 +4209,29 @@
         <v>1</v>
       </c>
       <c r="C343" t="n">
-        <v>0</v>
-      </c>
-      <c r="D343" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C344" t="n">
-        <v>0</v>
-      </c>
-      <c r="D344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C345" t="n">
-        <v>0</v>
-      </c>
-      <c r="D345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -5281,9 +4244,6 @@
       <c r="C346" t="n">
         <v>1</v>
       </c>
-      <c r="D346" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -5293,10 +4253,7 @@
         <v>0</v>
       </c>
       <c r="C347" t="n">
-        <v>0</v>
-      </c>
-      <c r="D347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
@@ -5307,38 +4264,29 @@
         <v>0</v>
       </c>
       <c r="C348" t="n">
-        <v>0</v>
-      </c>
-      <c r="D348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C349" t="n">
-        <v>0</v>
-      </c>
-      <c r="D349" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
-      </c>
-      <c r="D350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -5349,10 +4297,7 @@
         <v>0</v>
       </c>
       <c r="C351" t="n">
-        <v>0</v>
-      </c>
-      <c r="D351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -5363,37 +4308,28 @@
         <v>0</v>
       </c>
       <c r="C352" t="n">
-        <v>0</v>
-      </c>
-      <c r="D352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C353" t="n">
-        <v>0</v>
-      </c>
-      <c r="D353" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C354" t="n">
-        <v>0</v>
-      </c>
-      <c r="D354" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5405,52 +4341,40 @@
         <v>0</v>
       </c>
       <c r="C355" t="n">
-        <v>0</v>
-      </c>
-      <c r="D355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
-      </c>
-      <c r="D356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C357" t="n">
-        <v>0</v>
-      </c>
-      <c r="D357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C358" t="n">
-        <v>0</v>
-      </c>
-      <c r="D358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -5461,24 +4385,18 @@
         <v>1</v>
       </c>
       <c r="C359" t="n">
-        <v>0</v>
-      </c>
-      <c r="D359" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C360" t="n">
-        <v>0</v>
-      </c>
-      <c r="D360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -5489,23 +4407,17 @@
         <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
-      </c>
-      <c r="D361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>0</v>
-      </c>
-      <c r="D362" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5517,24 +4429,18 @@
         <v>1</v>
       </c>
       <c r="C363" t="n">
-        <v>0</v>
-      </c>
-      <c r="D363" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C364" t="n">
-        <v>0</v>
-      </c>
-      <c r="D364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -5545,10 +4451,7 @@
         <v>0</v>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
-      </c>
-      <c r="D365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
@@ -5559,24 +4462,18 @@
         <v>1</v>
       </c>
       <c r="C366" t="n">
-        <v>0</v>
-      </c>
-      <c r="D366" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C367" t="n">
-        <v>0</v>
-      </c>
-      <c r="D367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -5589,36 +4486,27 @@
       <c r="C368" t="n">
         <v>1</v>
       </c>
-      <c r="D368" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C369" t="n">
-        <v>0</v>
-      </c>
-      <c r="D369" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
-      </c>
-      <c r="D370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -5629,10 +4517,7 @@
         <v>0</v>
       </c>
       <c r="C371" t="n">
-        <v>0</v>
-      </c>
-      <c r="D371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
@@ -5645,50 +4530,38 @@
       <c r="C372" t="n">
         <v>1</v>
       </c>
-      <c r="D372" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C373" t="n">
-        <v>0</v>
-      </c>
-      <c r="D373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C374" t="n">
-        <v>0</v>
-      </c>
-      <c r="D374" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C375" t="n">
-        <v>0</v>
-      </c>
-      <c r="D375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
@@ -5699,24 +4572,18 @@
         <v>0</v>
       </c>
       <c r="C376" t="n">
-        <v>0</v>
-      </c>
-      <c r="D376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C377" t="n">
-        <v>0</v>
-      </c>
-      <c r="D377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -5727,9 +4594,6 @@
         <v>1</v>
       </c>
       <c r="C378" t="n">
-        <v>0</v>
-      </c>
-      <c r="D378" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5741,93 +4605,72 @@
         <v>0</v>
       </c>
       <c r="C379" t="n">
-        <v>0</v>
-      </c>
-      <c r="D379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C380" t="n">
-        <v>0</v>
-      </c>
-      <c r="D380" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C381" t="n">
-        <v>0</v>
-      </c>
-      <c r="D381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C382" t="n">
-        <v>0</v>
-      </c>
-      <c r="D382" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C383" t="n">
-        <v>0</v>
-      </c>
-      <c r="D383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
-      </c>
-      <c r="D384" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C385" t="n">
-        <v>0</v>
-      </c>
-      <c r="D385" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5839,10 +4682,7 @@
         <v>0</v>
       </c>
       <c r="C386" t="n">
-        <v>0</v>
-      </c>
-      <c r="D386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
@@ -5853,9 +4693,6 @@
         <v>1</v>
       </c>
       <c r="C387" t="n">
-        <v>0</v>
-      </c>
-      <c r="D387" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5867,24 +4704,18 @@
         <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>0</v>
-      </c>
-      <c r="D388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C389" t="n">
-        <v>0</v>
-      </c>
-      <c r="D389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
@@ -5895,9 +4726,6 @@
         <v>1</v>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
-      </c>
-      <c r="D390" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5909,24 +4737,18 @@
         <v>1</v>
       </c>
       <c r="C391" t="n">
-        <v>0</v>
-      </c>
-      <c r="D391" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C392" t="n">
-        <v>0</v>
-      </c>
-      <c r="D392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
@@ -5937,9 +4759,6 @@
         <v>1</v>
       </c>
       <c r="C393" t="n">
-        <v>0</v>
-      </c>
-      <c r="D393" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5951,9 +4770,6 @@
         <v>1</v>
       </c>
       <c r="C394" t="n">
-        <v>0</v>
-      </c>
-      <c r="D394" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5965,66 +4781,51 @@
         <v>1</v>
       </c>
       <c r="C395" t="n">
-        <v>0</v>
-      </c>
-      <c r="D395" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C396" t="n">
-        <v>1</v>
-      </c>
-      <c r="D396" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C397" t="n">
-        <v>0</v>
-      </c>
-      <c r="D397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C398" t="n">
-        <v>0</v>
-      </c>
-      <c r="D398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C399" t="n">
-        <v>0</v>
-      </c>
-      <c r="D399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
@@ -6037,50 +4838,38 @@
       <c r="C400" t="n">
         <v>1</v>
       </c>
-      <c r="D400" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C401" t="n">
-        <v>0</v>
-      </c>
-      <c r="D401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C402" t="n">
-        <v>0</v>
-      </c>
-      <c r="D402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C403" t="n">
-        <v>0</v>
-      </c>
-      <c r="D403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
@@ -6091,10 +4880,7 @@
         <v>0</v>
       </c>
       <c r="C404" t="n">
-        <v>0</v>
-      </c>
-      <c r="D404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
@@ -6105,24 +4891,18 @@
         <v>0</v>
       </c>
       <c r="C405" t="n">
-        <v>0</v>
-      </c>
-      <c r="D405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C406" t="n">
-        <v>0</v>
-      </c>
-      <c r="D406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
@@ -6135,50 +4915,38 @@
       <c r="C407" t="n">
         <v>1</v>
       </c>
-      <c r="D407" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
         <v>0</v>
       </c>
       <c r="B408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C408" t="n">
-        <v>0</v>
-      </c>
-      <c r="D408" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C409" t="n">
-        <v>0</v>
-      </c>
-      <c r="D409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C410" t="n">
-        <v>0</v>
-      </c>
-      <c r="D410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
@@ -6189,9 +4957,6 @@
         <v>1</v>
       </c>
       <c r="C411" t="n">
-        <v>0</v>
-      </c>
-      <c r="D411" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6203,24 +4968,18 @@
         <v>1</v>
       </c>
       <c r="C412" t="n">
-        <v>0</v>
-      </c>
-      <c r="D412" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C413" t="n">
-        <v>0</v>
-      </c>
-      <c r="D413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -6231,38 +4990,29 @@
         <v>1</v>
       </c>
       <c r="C414" t="n">
-        <v>0</v>
-      </c>
-      <c r="D414" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C415" t="n">
-        <v>0</v>
-      </c>
-      <c r="D415" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C416" t="n">
-        <v>0</v>
-      </c>
-      <c r="D416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
@@ -6275,36 +5025,27 @@
       <c r="C417" t="n">
         <v>1</v>
       </c>
-      <c r="D417" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C418" t="n">
-        <v>0</v>
-      </c>
-      <c r="D418" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C419" t="n">
-        <v>0</v>
-      </c>
-      <c r="D419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
@@ -6315,9 +5056,6 @@
         <v>1</v>
       </c>
       <c r="C420" t="n">
-        <v>0</v>
-      </c>
-      <c r="D420" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6329,10 +5067,7 @@
         <v>0</v>
       </c>
       <c r="C421" t="n">
-        <v>0</v>
-      </c>
-      <c r="D421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
@@ -6343,94 +5078,73 @@
         <v>0</v>
       </c>
       <c r="C422" t="n">
-        <v>0</v>
-      </c>
-      <c r="D422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C423" t="n">
-        <v>0</v>
-      </c>
-      <c r="D423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C424" t="n">
-        <v>0</v>
-      </c>
-      <c r="D424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C425" t="n">
-        <v>0</v>
-      </c>
-      <c r="D425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C426" t="n">
-        <v>0</v>
-      </c>
-      <c r="D426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C427" t="n">
-        <v>0</v>
-      </c>
-      <c r="D427" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C428" t="n">
-        <v>0</v>
-      </c>
-      <c r="D428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
@@ -6441,79 +5155,61 @@
         <v>1</v>
       </c>
       <c r="C429" t="n">
-        <v>0</v>
-      </c>
-      <c r="D429" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B430" t="n">
         <v>1</v>
       </c>
       <c r="C430" t="n">
-        <v>0</v>
-      </c>
-      <c r="D430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C431" t="n">
-        <v>0</v>
-      </c>
-      <c r="D431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C432" t="n">
-        <v>0</v>
-      </c>
-      <c r="D432" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C433" t="n">
-        <v>0</v>
-      </c>
-      <c r="D433" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C434" t="n">
-        <v>0</v>
-      </c>
-      <c r="D434" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6525,10 +5221,7 @@
         <v>0</v>
       </c>
       <c r="C435" t="n">
-        <v>0</v>
-      </c>
-      <c r="D435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
@@ -6539,65 +5232,50 @@
         <v>0</v>
       </c>
       <c r="C436" t="n">
-        <v>0</v>
-      </c>
-      <c r="D436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C437" t="n">
-        <v>0</v>
-      </c>
-      <c r="D437" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
-      </c>
-      <c r="D438" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C439" t="n">
-        <v>0</v>
-      </c>
-      <c r="D439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C440" t="n">
-        <v>0</v>
-      </c>
-      <c r="D440" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6609,10 +5287,7 @@
         <v>0</v>
       </c>
       <c r="C441" t="n">
-        <v>0</v>
-      </c>
-      <c r="D441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
@@ -6623,10 +5298,7 @@
         <v>0</v>
       </c>
       <c r="C442" t="n">
-        <v>0</v>
-      </c>
-      <c r="D442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
@@ -6637,9 +5309,6 @@
         <v>1</v>
       </c>
       <c r="C443" t="n">
-        <v>0</v>
-      </c>
-      <c r="D443" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6653,9 +5322,6 @@
       <c r="C444" t="n">
         <v>1</v>
       </c>
-      <c r="D444" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -6665,10 +5331,7 @@
         <v>0</v>
       </c>
       <c r="C445" t="n">
-        <v>0</v>
-      </c>
-      <c r="D445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
@@ -6679,9 +5342,6 @@
         <v>1</v>
       </c>
       <c r="C446" t="n">
-        <v>0</v>
-      </c>
-      <c r="D446" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6693,10 +5353,7 @@
         <v>0</v>
       </c>
       <c r="C447" t="n">
-        <v>0</v>
-      </c>
-      <c r="D447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -6704,55 +5361,43 @@
         <v>1</v>
       </c>
       <c r="B448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C448" t="n">
-        <v>0</v>
-      </c>
-      <c r="D448" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C449" t="n">
-        <v>0</v>
-      </c>
-      <c r="D449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C450" t="n">
-        <v>0</v>
-      </c>
-      <c r="D450" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C451" t="n">
-        <v>0</v>
-      </c>
-      <c r="D451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
@@ -6763,38 +5408,29 @@
         <v>0</v>
       </c>
       <c r="C452" t="n">
-        <v>0</v>
-      </c>
-      <c r="D452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C453" t="n">
-        <v>0</v>
-      </c>
-      <c r="D453" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C454" t="n">
-        <v>0</v>
-      </c>
-      <c r="D454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
@@ -6805,37 +5441,28 @@
         <v>1</v>
       </c>
       <c r="C455" t="n">
-        <v>0</v>
-      </c>
-      <c r="D455" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C456" t="n">
-        <v>0</v>
-      </c>
-      <c r="D456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C457" t="n">
-        <v>0</v>
-      </c>
-      <c r="D457" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6847,38 +5474,29 @@
         <v>0</v>
       </c>
       <c r="C458" t="n">
-        <v>0</v>
-      </c>
-      <c r="D458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C459" t="n">
-        <v>1</v>
-      </c>
-      <c r="D459" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C460" t="n">
-        <v>0</v>
-      </c>
-      <c r="D460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461">
@@ -6889,37 +5507,28 @@
         <v>0</v>
       </c>
       <c r="C461" t="n">
-        <v>0</v>
-      </c>
-      <c r="D461" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C462" t="n">
-        <v>0</v>
-      </c>
-      <c r="D462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C463" t="n">
-        <v>0</v>
-      </c>
-      <c r="D463" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6931,9 +5540,6 @@
         <v>1</v>
       </c>
       <c r="C464" t="n">
-        <v>0</v>
-      </c>
-      <c r="D464" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6945,23 +5551,17 @@
         <v>1</v>
       </c>
       <c r="C465" t="n">
-        <v>0</v>
-      </c>
-      <c r="D465" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C466" t="n">
-        <v>0</v>
-      </c>
-      <c r="D466" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6973,37 +5573,28 @@
         <v>1</v>
       </c>
       <c r="C467" t="n">
-        <v>0</v>
-      </c>
-      <c r="D467" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C468" t="n">
-        <v>0</v>
-      </c>
-      <c r="D468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C469" t="n">
-        <v>0</v>
-      </c>
-      <c r="D469" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7015,10 +5606,7 @@
         <v>0</v>
       </c>
       <c r="C470" t="n">
-        <v>0</v>
-      </c>
-      <c r="D470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
@@ -7029,9 +5617,6 @@
         <v>1</v>
       </c>
       <c r="C471" t="n">
-        <v>0</v>
-      </c>
-      <c r="D471" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7043,66 +5628,51 @@
         <v>1</v>
       </c>
       <c r="C472" t="n">
-        <v>0</v>
-      </c>
-      <c r="D472" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C473" t="n">
-        <v>0</v>
-      </c>
-      <c r="D473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C474" t="n">
-        <v>0</v>
-      </c>
-      <c r="D474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C475" t="n">
-        <v>0</v>
-      </c>
-      <c r="D475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C476" t="n">
-        <v>0</v>
-      </c>
-      <c r="D476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
@@ -7115,9 +5685,6 @@
       <c r="C477" t="n">
         <v>1</v>
       </c>
-      <c r="D477" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -7127,24 +5694,18 @@
         <v>1</v>
       </c>
       <c r="C478" t="n">
-        <v>0</v>
-      </c>
-      <c r="D478" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C479" t="n">
-        <v>0</v>
-      </c>
-      <c r="D479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
@@ -7155,66 +5716,51 @@
         <v>0</v>
       </c>
       <c r="C480" t="n">
-        <v>0</v>
-      </c>
-      <c r="D480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C481" t="n">
-        <v>0</v>
-      </c>
-      <c r="D481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C482" t="n">
-        <v>0</v>
-      </c>
-      <c r="D482" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C483" t="n">
-        <v>0</v>
-      </c>
-      <c r="D483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C484" t="n">
-        <v>0</v>
-      </c>
-      <c r="D484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485">
@@ -7225,24 +5771,18 @@
         <v>1</v>
       </c>
       <c r="C485" t="n">
-        <v>0</v>
-      </c>
-      <c r="D485" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C486" t="n">
-        <v>0</v>
-      </c>
-      <c r="D486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
@@ -7253,24 +5793,2691 @@
         <v>0</v>
       </c>
       <c r="C487" t="n">
-        <v>0</v>
-      </c>
-      <c r="D487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C488" t="n">
-        <v>0</v>
-      </c>
-      <c r="D488" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>0</v>
+      </c>
+      <c r="B489" t="n">
+        <v>0</v>
+      </c>
+      <c r="C489" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>0</v>
+      </c>
+      <c r="B490" t="n">
+        <v>0</v>
+      </c>
+      <c r="C490" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>0</v>
+      </c>
+      <c r="B491" t="n">
+        <v>0</v>
+      </c>
+      <c r="C491" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>1</v>
+      </c>
+      <c r="B492" t="n">
+        <v>1</v>
+      </c>
+      <c r="C492" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>1</v>
+      </c>
+      <c r="B493" t="n">
+        <v>1</v>
+      </c>
+      <c r="C493" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>0</v>
+      </c>
+      <c r="B494" t="n">
+        <v>0</v>
+      </c>
+      <c r="C494" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>1</v>
+      </c>
+      <c r="B495" t="n">
+        <v>1</v>
+      </c>
+      <c r="C495" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>1</v>
+      </c>
+      <c r="B496" t="n">
+        <v>1</v>
+      </c>
+      <c r="C496" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>1</v>
+      </c>
+      <c r="B497" t="n">
+        <v>1</v>
+      </c>
+      <c r="C497" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>1</v>
+      </c>
+      <c r="B498" t="n">
+        <v>1</v>
+      </c>
+      <c r="C498" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>1</v>
+      </c>
+      <c r="B499" t="n">
+        <v>1</v>
+      </c>
+      <c r="C499" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>1</v>
+      </c>
+      <c r="B500" t="n">
+        <v>1</v>
+      </c>
+      <c r="C500" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>0</v>
+      </c>
+      <c r="B501" t="n">
+        <v>0</v>
+      </c>
+      <c r="C501" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>1</v>
+      </c>
+      <c r="B502" t="n">
+        <v>1</v>
+      </c>
+      <c r="C502" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>0</v>
+      </c>
+      <c r="B503" t="n">
+        <v>0</v>
+      </c>
+      <c r="C503" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>0</v>
+      </c>
+      <c r="B504" t="n">
+        <v>0</v>
+      </c>
+      <c r="C504" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>1</v>
+      </c>
+      <c r="B505" t="n">
+        <v>1</v>
+      </c>
+      <c r="C505" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>1</v>
+      </c>
+      <c r="B506" t="n">
+        <v>1</v>
+      </c>
+      <c r="C506" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>0</v>
+      </c>
+      <c r="B507" t="n">
+        <v>0</v>
+      </c>
+      <c r="C507" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>0</v>
+      </c>
+      <c r="B508" t="n">
+        <v>0</v>
+      </c>
+      <c r="C508" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>1</v>
+      </c>
+      <c r="B509" t="n">
+        <v>1</v>
+      </c>
+      <c r="C509" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>1</v>
+      </c>
+      <c r="B510" t="n">
+        <v>1</v>
+      </c>
+      <c r="C510" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>1</v>
+      </c>
+      <c r="B511" t="n">
+        <v>1</v>
+      </c>
+      <c r="C511" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>0</v>
+      </c>
+      <c r="B512" t="n">
+        <v>0</v>
+      </c>
+      <c r="C512" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>1</v>
+      </c>
+      <c r="B513" t="n">
+        <v>1</v>
+      </c>
+      <c r="C513" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>0</v>
+      </c>
+      <c r="B514" t="n">
+        <v>0</v>
+      </c>
+      <c r="C514" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>1</v>
+      </c>
+      <c r="B515" t="n">
+        <v>1</v>
+      </c>
+      <c r="C515" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>1</v>
+      </c>
+      <c r="B516" t="n">
+        <v>1</v>
+      </c>
+      <c r="C516" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>1</v>
+      </c>
+      <c r="B517" t="n">
+        <v>1</v>
+      </c>
+      <c r="C517" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>1</v>
+      </c>
+      <c r="B518" t="n">
+        <v>1</v>
+      </c>
+      <c r="C518" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>1</v>
+      </c>
+      <c r="B519" t="n">
+        <v>1</v>
+      </c>
+      <c r="C519" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>1</v>
+      </c>
+      <c r="B520" t="n">
+        <v>1</v>
+      </c>
+      <c r="C520" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>1</v>
+      </c>
+      <c r="B521" t="n">
+        <v>1</v>
+      </c>
+      <c r="C521" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>0</v>
+      </c>
+      <c r="B522" t="n">
+        <v>0</v>
+      </c>
+      <c r="C522" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>1</v>
+      </c>
+      <c r="B523" t="n">
+        <v>1</v>
+      </c>
+      <c r="C523" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>1</v>
+      </c>
+      <c r="B524" t="n">
+        <v>1</v>
+      </c>
+      <c r="C524" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>1</v>
+      </c>
+      <c r="B525" t="n">
+        <v>1</v>
+      </c>
+      <c r="C525" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>1</v>
+      </c>
+      <c r="B526" t="n">
+        <v>1</v>
+      </c>
+      <c r="C526" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>0</v>
+      </c>
+      <c r="B527" t="n">
+        <v>0</v>
+      </c>
+      <c r="C527" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>0</v>
+      </c>
+      <c r="B528" t="n">
+        <v>0</v>
+      </c>
+      <c r="C528" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>1</v>
+      </c>
+      <c r="B529" t="n">
+        <v>1</v>
+      </c>
+      <c r="C529" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>0</v>
+      </c>
+      <c r="B530" t="n">
+        <v>0</v>
+      </c>
+      <c r="C530" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>1</v>
+      </c>
+      <c r="B531" t="n">
+        <v>1</v>
+      </c>
+      <c r="C531" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>0</v>
+      </c>
+      <c r="B532" t="n">
+        <v>0</v>
+      </c>
+      <c r="C532" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>0</v>
+      </c>
+      <c r="B533" t="n">
+        <v>0</v>
+      </c>
+      <c r="C533" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>0</v>
+      </c>
+      <c r="B534" t="n">
+        <v>0</v>
+      </c>
+      <c r="C534" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>0</v>
+      </c>
+      <c r="B535" t="n">
+        <v>0</v>
+      </c>
+      <c r="C535" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>0</v>
+      </c>
+      <c r="B536" t="n">
+        <v>0</v>
+      </c>
+      <c r="C536" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>0</v>
+      </c>
+      <c r="B537" t="n">
+        <v>0</v>
+      </c>
+      <c r="C537" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>0</v>
+      </c>
+      <c r="B538" t="n">
+        <v>0</v>
+      </c>
+      <c r="C538" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>0</v>
+      </c>
+      <c r="B539" t="n">
+        <v>0</v>
+      </c>
+      <c r="C539" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>0</v>
+      </c>
+      <c r="B540" t="n">
+        <v>0</v>
+      </c>
+      <c r="C540" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>0</v>
+      </c>
+      <c r="B541" t="n">
+        <v>0</v>
+      </c>
+      <c r="C541" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>0</v>
+      </c>
+      <c r="B542" t="n">
+        <v>0</v>
+      </c>
+      <c r="C542" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>1</v>
+      </c>
+      <c r="B543" t="n">
+        <v>1</v>
+      </c>
+      <c r="C543" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>0</v>
+      </c>
+      <c r="B544" t="n">
+        <v>0</v>
+      </c>
+      <c r="C544" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>1</v>
+      </c>
+      <c r="B545" t="n">
+        <v>1</v>
+      </c>
+      <c r="C545" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>0</v>
+      </c>
+      <c r="B546" t="n">
+        <v>0</v>
+      </c>
+      <c r="C546" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>1</v>
+      </c>
+      <c r="B547" t="n">
+        <v>1</v>
+      </c>
+      <c r="C547" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>0</v>
+      </c>
+      <c r="B548" t="n">
+        <v>0</v>
+      </c>
+      <c r="C548" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>1</v>
+      </c>
+      <c r="B549" t="n">
+        <v>1</v>
+      </c>
+      <c r="C549" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>0</v>
+      </c>
+      <c r="B550" t="n">
+        <v>0</v>
+      </c>
+      <c r="C550" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>0</v>
+      </c>
+      <c r="B551" t="n">
+        <v>0</v>
+      </c>
+      <c r="C551" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>1</v>
+      </c>
+      <c r="B552" t="n">
+        <v>1</v>
+      </c>
+      <c r="C552" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>1</v>
+      </c>
+      <c r="B553" t="n">
+        <v>1</v>
+      </c>
+      <c r="C553" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>0</v>
+      </c>
+      <c r="B554" t="n">
+        <v>0</v>
+      </c>
+      <c r="C554" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>1</v>
+      </c>
+      <c r="B555" t="n">
+        <v>1</v>
+      </c>
+      <c r="C555" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>1</v>
+      </c>
+      <c r="B556" t="n">
+        <v>1</v>
+      </c>
+      <c r="C556" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>1</v>
+      </c>
+      <c r="B557" t="n">
+        <v>1</v>
+      </c>
+      <c r="C557" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>1</v>
+      </c>
+      <c r="B558" t="n">
+        <v>1</v>
+      </c>
+      <c r="C558" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>1</v>
+      </c>
+      <c r="B559" t="n">
+        <v>1</v>
+      </c>
+      <c r="C559" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>1</v>
+      </c>
+      <c r="B560" t="n">
+        <v>1</v>
+      </c>
+      <c r="C560" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>1</v>
+      </c>
+      <c r="B561" t="n">
+        <v>1</v>
+      </c>
+      <c r="C561" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>1</v>
+      </c>
+      <c r="B562" t="n">
+        <v>1</v>
+      </c>
+      <c r="C562" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>1</v>
+      </c>
+      <c r="B563" t="n">
+        <v>1</v>
+      </c>
+      <c r="C563" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>1</v>
+      </c>
+      <c r="B564" t="n">
+        <v>1</v>
+      </c>
+      <c r="C564" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>1</v>
+      </c>
+      <c r="B565" t="n">
+        <v>1</v>
+      </c>
+      <c r="C565" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>1</v>
+      </c>
+      <c r="B566" t="n">
+        <v>1</v>
+      </c>
+      <c r="C566" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>1</v>
+      </c>
+      <c r="B567" t="n">
+        <v>1</v>
+      </c>
+      <c r="C567" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>1</v>
+      </c>
+      <c r="B568" t="n">
+        <v>1</v>
+      </c>
+      <c r="C568" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>1</v>
+      </c>
+      <c r="B569" t="n">
+        <v>1</v>
+      </c>
+      <c r="C569" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>1</v>
+      </c>
+      <c r="B570" t="n">
+        <v>1</v>
+      </c>
+      <c r="C570" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>1</v>
+      </c>
+      <c r="B571" t="n">
+        <v>1</v>
+      </c>
+      <c r="C571" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>1</v>
+      </c>
+      <c r="B572" t="n">
+        <v>1</v>
+      </c>
+      <c r="C572" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>1</v>
+      </c>
+      <c r="B573" t="n">
+        <v>1</v>
+      </c>
+      <c r="C573" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>1</v>
+      </c>
+      <c r="B574" t="n">
+        <v>1</v>
+      </c>
+      <c r="C574" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>1</v>
+      </c>
+      <c r="B575" t="n">
+        <v>1</v>
+      </c>
+      <c r="C575" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>0</v>
+      </c>
+      <c r="B576" t="n">
+        <v>0</v>
+      </c>
+      <c r="C576" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>1</v>
+      </c>
+      <c r="B577" t="n">
+        <v>1</v>
+      </c>
+      <c r="C577" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>0</v>
+      </c>
+      <c r="B578" t="n">
+        <v>0</v>
+      </c>
+      <c r="C578" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>0</v>
+      </c>
+      <c r="B579" t="n">
+        <v>0</v>
+      </c>
+      <c r="C579" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>1</v>
+      </c>
+      <c r="B580" t="n">
+        <v>1</v>
+      </c>
+      <c r="C580" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>1</v>
+      </c>
+      <c r="B581" t="n">
+        <v>1</v>
+      </c>
+      <c r="C581" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>1</v>
+      </c>
+      <c r="B582" t="n">
+        <v>1</v>
+      </c>
+      <c r="C582" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>1</v>
+      </c>
+      <c r="B583" t="n">
+        <v>1</v>
+      </c>
+      <c r="C583" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>1</v>
+      </c>
+      <c r="B584" t="n">
+        <v>1</v>
+      </c>
+      <c r="C584" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>0</v>
+      </c>
+      <c r="B585" t="n">
+        <v>0</v>
+      </c>
+      <c r="C585" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>1</v>
+      </c>
+      <c r="B586" t="n">
+        <v>1</v>
+      </c>
+      <c r="C586" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>1</v>
+      </c>
+      <c r="B587" t="n">
+        <v>1</v>
+      </c>
+      <c r="C587" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>0</v>
+      </c>
+      <c r="B588" t="n">
+        <v>0</v>
+      </c>
+      <c r="C588" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>0</v>
+      </c>
+      <c r="B589" t="n">
+        <v>0</v>
+      </c>
+      <c r="C589" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>1</v>
+      </c>
+      <c r="B590" t="n">
+        <v>1</v>
+      </c>
+      <c r="C590" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>0</v>
+      </c>
+      <c r="B591" t="n">
+        <v>0</v>
+      </c>
+      <c r="C591" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>1</v>
+      </c>
+      <c r="B592" t="n">
+        <v>1</v>
+      </c>
+      <c r="C592" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>0</v>
+      </c>
+      <c r="B593" t="n">
+        <v>0</v>
+      </c>
+      <c r="C593" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>0</v>
+      </c>
+      <c r="B594" t="n">
+        <v>0</v>
+      </c>
+      <c r="C594" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>0</v>
+      </c>
+      <c r="B595" t="n">
+        <v>0</v>
+      </c>
+      <c r="C595" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>1</v>
+      </c>
+      <c r="B596" t="n">
+        <v>1</v>
+      </c>
+      <c r="C596" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>0</v>
+      </c>
+      <c r="B597" t="n">
+        <v>0</v>
+      </c>
+      <c r="C597" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>1</v>
+      </c>
+      <c r="B598" t="n">
+        <v>1</v>
+      </c>
+      <c r="C598" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>1</v>
+      </c>
+      <c r="B599" t="n">
+        <v>1</v>
+      </c>
+      <c r="C599" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>1</v>
+      </c>
+      <c r="B600" t="n">
+        <v>1</v>
+      </c>
+      <c r="C600" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>1</v>
+      </c>
+      <c r="B601" t="n">
+        <v>1</v>
+      </c>
+      <c r="C601" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>1</v>
+      </c>
+      <c r="B602" t="n">
+        <v>1</v>
+      </c>
+      <c r="C602" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>1</v>
+      </c>
+      <c r="B603" t="n">
+        <v>1</v>
+      </c>
+      <c r="C603" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>0</v>
+      </c>
+      <c r="B604" t="n">
+        <v>0</v>
+      </c>
+      <c r="C604" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>1</v>
+      </c>
+      <c r="B605" t="n">
+        <v>1</v>
+      </c>
+      <c r="C605" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>1</v>
+      </c>
+      <c r="B606" t="n">
+        <v>1</v>
+      </c>
+      <c r="C606" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>1</v>
+      </c>
+      <c r="B607" t="n">
+        <v>1</v>
+      </c>
+      <c r="C607" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>0</v>
+      </c>
+      <c r="B608" t="n">
+        <v>0</v>
+      </c>
+      <c r="C608" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>1</v>
+      </c>
+      <c r="B609" t="n">
+        <v>1</v>
+      </c>
+      <c r="C609" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>1</v>
+      </c>
+      <c r="B610" t="n">
+        <v>1</v>
+      </c>
+      <c r="C610" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>0</v>
+      </c>
+      <c r="B611" t="n">
+        <v>0</v>
+      </c>
+      <c r="C611" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>1</v>
+      </c>
+      <c r="B612" t="n">
+        <v>1</v>
+      </c>
+      <c r="C612" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>0</v>
+      </c>
+      <c r="B613" t="n">
+        <v>0</v>
+      </c>
+      <c r="C613" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>0</v>
+      </c>
+      <c r="B614" t="n">
+        <v>0</v>
+      </c>
+      <c r="C614" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>1</v>
+      </c>
+      <c r="B615" t="n">
+        <v>1</v>
+      </c>
+      <c r="C615" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>1</v>
+      </c>
+      <c r="B616" t="n">
+        <v>1</v>
+      </c>
+      <c r="C616" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>0</v>
+      </c>
+      <c r="B617" t="n">
+        <v>0</v>
+      </c>
+      <c r="C617" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>0</v>
+      </c>
+      <c r="B618" t="n">
+        <v>0</v>
+      </c>
+      <c r="C618" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>0</v>
+      </c>
+      <c r="B619" t="n">
+        <v>0</v>
+      </c>
+      <c r="C619" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>0</v>
+      </c>
+      <c r="B620" t="n">
+        <v>0</v>
+      </c>
+      <c r="C620" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>0</v>
+      </c>
+      <c r="B621" t="n">
+        <v>0</v>
+      </c>
+      <c r="C621" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>1</v>
+      </c>
+      <c r="B622" t="n">
+        <v>1</v>
+      </c>
+      <c r="C622" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>1</v>
+      </c>
+      <c r="B623" t="n">
+        <v>1</v>
+      </c>
+      <c r="C623" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>1</v>
+      </c>
+      <c r="B624" t="n">
+        <v>1</v>
+      </c>
+      <c r="C624" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>0</v>
+      </c>
+      <c r="B625" t="n">
+        <v>0</v>
+      </c>
+      <c r="C625" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>1</v>
+      </c>
+      <c r="B626" t="n">
+        <v>1</v>
+      </c>
+      <c r="C626" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>1</v>
+      </c>
+      <c r="B627" t="n">
+        <v>1</v>
+      </c>
+      <c r="C627" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>0</v>
+      </c>
+      <c r="B628" t="n">
+        <v>0</v>
+      </c>
+      <c r="C628" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>1</v>
+      </c>
+      <c r="B629" t="n">
+        <v>1</v>
+      </c>
+      <c r="C629" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>1</v>
+      </c>
+      <c r="B630" t="n">
+        <v>1</v>
+      </c>
+      <c r="C630" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>0</v>
+      </c>
+      <c r="B631" t="n">
+        <v>0</v>
+      </c>
+      <c r="C631" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>1</v>
+      </c>
+      <c r="B632" t="n">
+        <v>1</v>
+      </c>
+      <c r="C632" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>1</v>
+      </c>
+      <c r="B633" t="n">
+        <v>1</v>
+      </c>
+      <c r="C633" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>1</v>
+      </c>
+      <c r="B634" t="n">
+        <v>1</v>
+      </c>
+      <c r="C634" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>0</v>
+      </c>
+      <c r="B635" t="n">
+        <v>0</v>
+      </c>
+      <c r="C635" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>1</v>
+      </c>
+      <c r="B636" t="n">
+        <v>1</v>
+      </c>
+      <c r="C636" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>1</v>
+      </c>
+      <c r="B637" t="n">
+        <v>1</v>
+      </c>
+      <c r="C637" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>1</v>
+      </c>
+      <c r="B638" t="n">
+        <v>1</v>
+      </c>
+      <c r="C638" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>1</v>
+      </c>
+      <c r="B639" t="n">
+        <v>1</v>
+      </c>
+      <c r="C639" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>1</v>
+      </c>
+      <c r="B640" t="n">
+        <v>1</v>
+      </c>
+      <c r="C640" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>0</v>
+      </c>
+      <c r="B641" t="n">
+        <v>0</v>
+      </c>
+      <c r="C641" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>1</v>
+      </c>
+      <c r="B642" t="n">
+        <v>1</v>
+      </c>
+      <c r="C642" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>1</v>
+      </c>
+      <c r="B643" t="n">
+        <v>1</v>
+      </c>
+      <c r="C643" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>1</v>
+      </c>
+      <c r="B644" t="n">
+        <v>1</v>
+      </c>
+      <c r="C644" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>1</v>
+      </c>
+      <c r="B645" t="n">
+        <v>1</v>
+      </c>
+      <c r="C645" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>1</v>
+      </c>
+      <c r="B646" t="n">
+        <v>1</v>
+      </c>
+      <c r="C646" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>0</v>
+      </c>
+      <c r="B647" t="n">
+        <v>0</v>
+      </c>
+      <c r="C647" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>1</v>
+      </c>
+      <c r="B648" t="n">
+        <v>1</v>
+      </c>
+      <c r="C648" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>0</v>
+      </c>
+      <c r="B649" t="n">
+        <v>0</v>
+      </c>
+      <c r="C649" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>1</v>
+      </c>
+      <c r="B650" t="n">
+        <v>1</v>
+      </c>
+      <c r="C650" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>1</v>
+      </c>
+      <c r="B651" t="n">
+        <v>1</v>
+      </c>
+      <c r="C651" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>1</v>
+      </c>
+      <c r="B652" t="n">
+        <v>1</v>
+      </c>
+      <c r="C652" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>1</v>
+      </c>
+      <c r="B653" t="n">
+        <v>1</v>
+      </c>
+      <c r="C653" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>1</v>
+      </c>
+      <c r="B654" t="n">
+        <v>1</v>
+      </c>
+      <c r="C654" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>1</v>
+      </c>
+      <c r="B655" t="n">
+        <v>1</v>
+      </c>
+      <c r="C655" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>0</v>
+      </c>
+      <c r="B656" t="n">
+        <v>0</v>
+      </c>
+      <c r="C656" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>0</v>
+      </c>
+      <c r="B657" t="n">
+        <v>0</v>
+      </c>
+      <c r="C657" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>1</v>
+      </c>
+      <c r="B658" t="n">
+        <v>1</v>
+      </c>
+      <c r="C658" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>0</v>
+      </c>
+      <c r="B659" t="n">
+        <v>0</v>
+      </c>
+      <c r="C659" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>0</v>
+      </c>
+      <c r="B660" t="n">
+        <v>0</v>
+      </c>
+      <c r="C660" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>1</v>
+      </c>
+      <c r="B661" t="n">
+        <v>1</v>
+      </c>
+      <c r="C661" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>0</v>
+      </c>
+      <c r="B662" t="n">
+        <v>0</v>
+      </c>
+      <c r="C662" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>1</v>
+      </c>
+      <c r="B663" t="n">
+        <v>1</v>
+      </c>
+      <c r="C663" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>1</v>
+      </c>
+      <c r="B664" t="n">
+        <v>1</v>
+      </c>
+      <c r="C664" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>0</v>
+      </c>
+      <c r="B665" t="n">
+        <v>0</v>
+      </c>
+      <c r="C665" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>0</v>
+      </c>
+      <c r="B666" t="n">
+        <v>0</v>
+      </c>
+      <c r="C666" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>0</v>
+      </c>
+      <c r="B667" t="n">
+        <v>0</v>
+      </c>
+      <c r="C667" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>1</v>
+      </c>
+      <c r="B668" t="n">
+        <v>1</v>
+      </c>
+      <c r="C668" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>1</v>
+      </c>
+      <c r="B669" t="n">
+        <v>1</v>
+      </c>
+      <c r="C669" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>1</v>
+      </c>
+      <c r="B670" t="n">
+        <v>1</v>
+      </c>
+      <c r="C670" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>0</v>
+      </c>
+      <c r="B671" t="n">
+        <v>0</v>
+      </c>
+      <c r="C671" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>1</v>
+      </c>
+      <c r="B672" t="n">
+        <v>1</v>
+      </c>
+      <c r="C672" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>0</v>
+      </c>
+      <c r="B673" t="n">
+        <v>0</v>
+      </c>
+      <c r="C673" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>1</v>
+      </c>
+      <c r="B674" t="n">
+        <v>1</v>
+      </c>
+      <c r="C674" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>1</v>
+      </c>
+      <c r="B675" t="n">
+        <v>1</v>
+      </c>
+      <c r="C675" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>0</v>
+      </c>
+      <c r="B676" t="n">
+        <v>0</v>
+      </c>
+      <c r="C676" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>1</v>
+      </c>
+      <c r="B677" t="n">
+        <v>1</v>
+      </c>
+      <c r="C677" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>1</v>
+      </c>
+      <c r="B678" t="n">
+        <v>1</v>
+      </c>
+      <c r="C678" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>1</v>
+      </c>
+      <c r="B679" t="n">
+        <v>1</v>
+      </c>
+      <c r="C679" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>0</v>
+      </c>
+      <c r="B680" t="n">
+        <v>0</v>
+      </c>
+      <c r="C680" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>1</v>
+      </c>
+      <c r="B681" t="n">
+        <v>1</v>
+      </c>
+      <c r="C681" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>1</v>
+      </c>
+      <c r="B682" t="n">
+        <v>1</v>
+      </c>
+      <c r="C682" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>1</v>
+      </c>
+      <c r="B683" t="n">
+        <v>1</v>
+      </c>
+      <c r="C683" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>1</v>
+      </c>
+      <c r="B684" t="n">
+        <v>1</v>
+      </c>
+      <c r="C684" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>1</v>
+      </c>
+      <c r="B685" t="n">
+        <v>1</v>
+      </c>
+      <c r="C685" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>1</v>
+      </c>
+      <c r="B686" t="n">
+        <v>1</v>
+      </c>
+      <c r="C686" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>0</v>
+      </c>
+      <c r="B687" t="n">
+        <v>0</v>
+      </c>
+      <c r="C687" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>0</v>
+      </c>
+      <c r="B688" t="n">
+        <v>0</v>
+      </c>
+      <c r="C688" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>1</v>
+      </c>
+      <c r="B689" t="n">
+        <v>1</v>
+      </c>
+      <c r="C689" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>1</v>
+      </c>
+      <c r="B690" t="n">
+        <v>1</v>
+      </c>
+      <c r="C690" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>0</v>
+      </c>
+      <c r="B691" t="n">
+        <v>0</v>
+      </c>
+      <c r="C691" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>1</v>
+      </c>
+      <c r="B692" t="n">
+        <v>1</v>
+      </c>
+      <c r="C692" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>1</v>
+      </c>
+      <c r="B693" t="n">
+        <v>1</v>
+      </c>
+      <c r="C693" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>1</v>
+      </c>
+      <c r="B694" t="n">
+        <v>1</v>
+      </c>
+      <c r="C694" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>1</v>
+      </c>
+      <c r="B695" t="n">
+        <v>1</v>
+      </c>
+      <c r="C695" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>0</v>
+      </c>
+      <c r="B696" t="n">
+        <v>0</v>
+      </c>
+      <c r="C696" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>1</v>
+      </c>
+      <c r="B697" t="n">
+        <v>1</v>
+      </c>
+      <c r="C697" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>1</v>
+      </c>
+      <c r="B698" t="n">
+        <v>1</v>
+      </c>
+      <c r="C698" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>0</v>
+      </c>
+      <c r="B699" t="n">
+        <v>0</v>
+      </c>
+      <c r="C699" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>1</v>
+      </c>
+      <c r="B700" t="n">
+        <v>1</v>
+      </c>
+      <c r="C700" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>1</v>
+      </c>
+      <c r="B701" t="n">
+        <v>1</v>
+      </c>
+      <c r="C701" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>1</v>
+      </c>
+      <c r="B702" t="n">
+        <v>1</v>
+      </c>
+      <c r="C702" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>0</v>
+      </c>
+      <c r="B703" t="n">
+        <v>0</v>
+      </c>
+      <c r="C703" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>1</v>
+      </c>
+      <c r="B704" t="n">
+        <v>1</v>
+      </c>
+      <c r="C704" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>1</v>
+      </c>
+      <c r="B705" t="n">
+        <v>1</v>
+      </c>
+      <c r="C705" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>1</v>
+      </c>
+      <c r="B706" t="n">
+        <v>1</v>
+      </c>
+      <c r="C706" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>0</v>
+      </c>
+      <c r="B707" t="n">
+        <v>0</v>
+      </c>
+      <c r="C707" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>0</v>
+      </c>
+      <c r="B708" t="n">
+        <v>0</v>
+      </c>
+      <c r="C708" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>1</v>
+      </c>
+      <c r="B709" t="n">
+        <v>1</v>
+      </c>
+      <c r="C709" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>1</v>
+      </c>
+      <c r="B710" t="n">
+        <v>1</v>
+      </c>
+      <c r="C710" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>1</v>
+      </c>
+      <c r="B711" t="n">
+        <v>1</v>
+      </c>
+      <c r="C711" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>1</v>
+      </c>
+      <c r="B712" t="n">
+        <v>1</v>
+      </c>
+      <c r="C712" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>1</v>
+      </c>
+      <c r="B713" t="n">
+        <v>1</v>
+      </c>
+      <c r="C713" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>0</v>
+      </c>
+      <c r="B714" t="n">
+        <v>0</v>
+      </c>
+      <c r="C714" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>0</v>
+      </c>
+      <c r="B715" t="n">
+        <v>0</v>
+      </c>
+      <c r="C715" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>1</v>
+      </c>
+      <c r="B716" t="n">
+        <v>1</v>
+      </c>
+      <c r="C716" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>0</v>
+      </c>
+      <c r="B717" t="n">
+        <v>0</v>
+      </c>
+      <c r="C717" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>1</v>
+      </c>
+      <c r="B718" t="n">
+        <v>1</v>
+      </c>
+      <c r="C718" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>0</v>
+      </c>
+      <c r="B719" t="n">
+        <v>0</v>
+      </c>
+      <c r="C719" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>0</v>
+      </c>
+      <c r="B720" t="n">
+        <v>0</v>
+      </c>
+      <c r="C720" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>0</v>
+      </c>
+      <c r="B721" t="n">
+        <v>0</v>
+      </c>
+      <c r="C721" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>0</v>
+      </c>
+      <c r="B722" t="n">
+        <v>0</v>
+      </c>
+      <c r="C722" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>1</v>
+      </c>
+      <c r="B723" t="n">
+        <v>1</v>
+      </c>
+      <c r="C723" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>1</v>
+      </c>
+      <c r="B724" t="n">
+        <v>1</v>
+      </c>
+      <c r="C724" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>0</v>
+      </c>
+      <c r="B725" t="n">
+        <v>0</v>
+      </c>
+      <c r="C725" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>1</v>
+      </c>
+      <c r="B726" t="n">
+        <v>1</v>
+      </c>
+      <c r="C726" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>0</v>
+      </c>
+      <c r="B727" t="n">
+        <v>0</v>
+      </c>
+      <c r="C727" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>1</v>
+      </c>
+      <c r="B728" t="n">
+        <v>1</v>
+      </c>
+      <c r="C728" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>1</v>
+      </c>
+      <c r="B729" t="n">
+        <v>1</v>
+      </c>
+      <c r="C729" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>1</v>
+      </c>
+      <c r="B730" t="n">
+        <v>1</v>
+      </c>
+      <c r="C730" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>0</v>
+      </c>
+      <c r="B731" t="n">
+        <v>0</v>
+      </c>
+      <c r="C731" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
